--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -696,17 +696,13 @@
         <v>6.131999999999994</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.14</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -741,14 +737,8 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -2990,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3025,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3060,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3095,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3130,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3165,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3200,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3270,7 +3254,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -6662,13 +6646,17 @@
         <v>6.147999999999978</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K179" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
@@ -6697,14 +6685,22 @@
         <v>6.129999999999979</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6738,8 +6734,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +6775,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6837,18 +6851,18 @@
         <v>6.051999999999979</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -6878,15 +6892,15 @@
         <v>6.067999999999978</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6919,15 +6933,15 @@
         <v>6.083999999999978</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6966,7 +6980,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7005,7 +7021,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7044,7 +7062,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7077,15 +7097,15 @@
         <v>6.097999999999978</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7126,7 +7146,9 @@
       <c r="J191" t="n">
         <v>6.13</v>
       </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7159,15 +7181,15 @@
         <v>6.099999999999978</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7200,15 +7222,15 @@
         <v>6.117999999999977</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,15 +7263,15 @@
         <v>6.137999999999978</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7288,7 +7310,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7327,7 +7351,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7366,7 +7392,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7405,7 +7433,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7444,7 +7474,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,7 +7515,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7522,7 +7556,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,7 +7597,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,7 +7638,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7639,7 +7679,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7678,7 +7720,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,7 +7761,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7756,7 +7802,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7795,7 +7843,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7828,15 +7878,15 @@
         <v>6.029999999999982</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>6</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7869,15 +7919,15 @@
         <v>5.989999999999982</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7910,15 +7960,15 @@
         <v>5.951999999999983</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>6.13</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C2" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="D2" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="E2" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="F2" t="n">
-        <v>1607</v>
+        <v>862.9166</v>
       </c>
       <c r="G2" t="n">
-        <v>6.131999999999995</v>
+        <v>6.131666666666661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="C3" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="D3" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="E3" t="n">
-        <v>6.12</v>
+        <v>6.09</v>
       </c>
       <c r="F3" t="n">
-        <v>521.732</v>
+        <v>1607</v>
       </c>
       <c r="G3" t="n">
-        <v>6.125999999999995</v>
+        <v>6.130999999999995</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C4" t="n">
         <v>6.12</v>
@@ -512,22 +512,26 @@
         <v>6.12</v>
       </c>
       <c r="E4" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F4" t="n">
-        <v>7836</v>
+        <v>521.732</v>
       </c>
       <c r="G4" t="n">
-        <v>6.119999999999995</v>
+        <v>6.130833333333328</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.09</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -538,32 +542,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C5" t="n">
         <v>6.12</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.14</v>
-      </c>
       <c r="D5" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="E5" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7836</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.130666666666661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>6.12</v>
       </c>
-      <c r="F5" t="n">
-        <v>7823.7908</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6.117999999999995</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C6" t="n">
         <v>6.14</v>
@@ -582,13 +594,13 @@
         <v>6.14</v>
       </c>
       <c r="E6" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F6" t="n">
-        <v>1010</v>
+        <v>7823.7908</v>
       </c>
       <c r="G6" t="n">
-        <v>6.121999999999995</v>
+        <v>6.130499999999995</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -597,8 +609,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -611,19 +629,19 @@
         <v>6.11</v>
       </c>
       <c r="C7" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D7" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="E7" t="n">
         <v>6.11</v>
       </c>
       <c r="F7" t="n">
-        <v>64486</v>
+        <v>1010</v>
       </c>
       <c r="G7" t="n">
-        <v>6.125999999999996</v>
+        <v>6.130333333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +661,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="C8" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="D8" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="E8" t="n">
-        <v>6.13</v>
+        <v>6.11</v>
       </c>
       <c r="F8" t="n">
-        <v>5088.7135</v>
+        <v>64486</v>
       </c>
       <c r="G8" t="n">
-        <v>6.127999999999995</v>
+        <v>6.129666666666663</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +696,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C9" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D9" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="E9" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="F9" t="n">
-        <v>9907.1661</v>
+        <v>5088.7135</v>
       </c>
       <c r="G9" t="n">
-        <v>6.131999999999994</v>
+        <v>6.129499999999996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +743,10 @@
         <v>6.14</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9907.1661</v>
       </c>
       <c r="G10" t="n">
-        <v>6.131999999999993</v>
+        <v>6.130999999999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="C11" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="D11" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="E11" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="F11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>6.127999999999993</v>
+        <v>6.130999999999996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="C12" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="D12" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="E12" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="F12" t="n">
-        <v>10.17</v>
+        <v>1000</v>
       </c>
       <c r="G12" t="n">
-        <v>6.133999999999993</v>
+        <v>6.130666666666662</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="C13" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="D13" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="E13" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="F13" t="n">
-        <v>4329.6762</v>
+        <v>10.17</v>
       </c>
       <c r="G13" t="n">
-        <v>6.137999999999993</v>
+        <v>6.130166666666662</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +871,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="C14" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="D14" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="E14" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="F14" t="n">
-        <v>90.32380000000001</v>
+        <v>4329.6762</v>
       </c>
       <c r="G14" t="n">
-        <v>6.137999999999993</v>
+        <v>6.130499999999995</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="C15" t="n">
         <v>6.14</v>
@@ -897,13 +915,13 @@
         <v>6.14</v>
       </c>
       <c r="E15" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="F15" t="n">
-        <v>2438.7249</v>
+        <v>90.32380000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>6.137999999999993</v>
+        <v>6.130666666666661</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +944,19 @@
         <v>6.11</v>
       </c>
       <c r="C16" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="D16" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="E16" t="n">
         <v>6.11</v>
       </c>
       <c r="F16" t="n">
-        <v>36200</v>
+        <v>2438.7249</v>
       </c>
       <c r="G16" t="n">
-        <v>6.143999999999992</v>
+        <v>6.130333333333327</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="C17" t="n">
         <v>6.15</v>
@@ -967,13 +985,13 @@
         <v>6.15</v>
       </c>
       <c r="E17" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="F17" t="n">
-        <v>5300</v>
+        <v>36200</v>
       </c>
       <c r="G17" t="n">
-        <v>6.145999999999992</v>
+        <v>6.130333333333327</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1023,10 @@
         <v>6.14</v>
       </c>
       <c r="F18" t="n">
-        <v>10590</v>
+        <v>5300</v>
       </c>
       <c r="G18" t="n">
-        <v>6.145999999999992</v>
+        <v>6.131833333333327</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,7 +1046,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="C19" t="n">
         <v>6.15</v>
@@ -1037,13 +1055,13 @@
         <v>6.15</v>
       </c>
       <c r="E19" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="F19" t="n">
-        <v>128</v>
+        <v>10590</v>
       </c>
       <c r="G19" t="n">
-        <v>6.147999999999992</v>
+        <v>6.132833333333327</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1093,10 @@
         <v>6.15</v>
       </c>
       <c r="F20" t="n">
-        <v>800</v>
+        <v>128</v>
       </c>
       <c r="G20" t="n">
-        <v>6.149999999999991</v>
+        <v>6.132999999999994</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,7 +1116,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="C21" t="n">
         <v>6.15</v>
@@ -1107,13 +1125,13 @@
         <v>6.15</v>
       </c>
       <c r="E21" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="F21" t="n">
-        <v>890</v>
+        <v>800</v>
       </c>
       <c r="G21" t="n">
-        <v>6.149999999999991</v>
+        <v>6.13316666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1154,19 @@
         <v>6.14</v>
       </c>
       <c r="C22" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="D22" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="E22" t="n">
         <v>6.14</v>
       </c>
       <c r="F22" t="n">
-        <v>10.4152</v>
+        <v>890</v>
       </c>
       <c r="G22" t="n">
-        <v>6.147999999999992</v>
+        <v>6.133333333333327</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="C23" t="n">
         <v>6.14</v>
@@ -1177,13 +1195,13 @@
         <v>6.14</v>
       </c>
       <c r="E23" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="F23" t="n">
-        <v>1045.4975</v>
+        <v>10.4152</v>
       </c>
       <c r="G23" t="n">
-        <v>6.145999999999992</v>
+        <v>6.134833333333327</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C24" t="n">
         <v>6.14</v>
@@ -1212,13 +1230,13 @@
         <v>6.14</v>
       </c>
       <c r="E24" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="F24" t="n">
-        <v>25589.4136</v>
+        <v>1045.4975</v>
       </c>
       <c r="G24" t="n">
-        <v>6.143999999999993</v>
+        <v>6.13516666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1259,19 @@
         <v>6.14</v>
       </c>
       <c r="C25" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="D25" t="n">
         <v>6.14</v>
       </c>
       <c r="E25" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="F25" t="n">
-        <v>993.8536</v>
+        <v>25589.4136</v>
       </c>
       <c r="G25" t="n">
-        <v>6.137999999999993</v>
+        <v>6.135499999999992</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1291,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="C26" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="D26" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="E26" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F26" t="n">
-        <v>24864.5864</v>
+        <v>993.8536</v>
       </c>
       <c r="G26" t="n">
-        <v>6.129999999999993</v>
+        <v>6.135499999999992</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1326,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="C27" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="D27" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="E27" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
+        <v>24864.5864</v>
       </c>
       <c r="G27" t="n">
-        <v>6.129999999999993</v>
+        <v>6.135333333333326</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1373,10 @@
         <v>6.14</v>
       </c>
       <c r="F28" t="n">
-        <v>1741.2706</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>6.129999999999993</v>
+        <v>6.135666666666659</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1408,10 @@
         <v>6.14</v>
       </c>
       <c r="F29" t="n">
-        <v>6480</v>
+        <v>1741.2706</v>
       </c>
       <c r="G29" t="n">
-        <v>6.129999999999993</v>
+        <v>6.135999999999992</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1443,10 @@
         <v>6.14</v>
       </c>
       <c r="F30" t="n">
-        <v>8910</v>
+        <v>6480</v>
       </c>
       <c r="G30" t="n">
-        <v>6.133999999999992</v>
+        <v>6.136166666666658</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1469,19 @@
         <v>6.14</v>
       </c>
       <c r="C31" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="D31" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="E31" t="n">
         <v>6.14</v>
       </c>
       <c r="F31" t="n">
-        <v>1420</v>
+        <v>8910</v>
       </c>
       <c r="G31" t="n">
-        <v>6.141999999999993</v>
+        <v>6.136166666666658</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="C32" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="D32" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="E32" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="F32" t="n">
-        <v>28639.9183</v>
+        <v>1420</v>
       </c>
       <c r="G32" t="n">
-        <v>6.135999999999993</v>
+        <v>6.136166666666658</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="C33" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="D33" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="E33" t="n">
-        <v>6.14</v>
+        <v>6.11</v>
       </c>
       <c r="F33" t="n">
-        <v>11.26</v>
+        <v>28639.9183</v>
       </c>
       <c r="G33" t="n">
-        <v>6.135999999999993</v>
+        <v>6.136833333333326</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
         <v>6.14</v>
       </c>
       <c r="F34" t="n">
-        <v>29816.5763</v>
+        <v>11.26</v>
       </c>
       <c r="G34" t="n">
-        <v>6.135999999999993</v>
+        <v>6.136666666666659</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1618,10 @@
         <v>6.14</v>
       </c>
       <c r="F35" t="n">
-        <v>519.2542999999999</v>
+        <v>29816.5763</v>
       </c>
       <c r="G35" t="n">
-        <v>6.135999999999993</v>
+        <v>6.137833333333325</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="C36" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="D36" t="n">
-        <v>6.12</v>
+        <v>6.14</v>
       </c>
       <c r="E36" t="n">
-        <v>6.11</v>
+        <v>6.14</v>
       </c>
       <c r="F36" t="n">
-        <v>17485.3939</v>
+        <v>519.2542999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>6.127999999999993</v>
+        <v>6.138999999999992</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1679,19 @@
         <v>6.12</v>
       </c>
       <c r="C37" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="D37" t="n">
         <v>6.12</v>
       </c>
       <c r="E37" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>17485.3939</v>
       </c>
       <c r="G37" t="n">
-        <v>6.129999999999993</v>
+        <v>6.139666666666659</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1714,19 @@
         <v>6.12</v>
       </c>
       <c r="C38" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="D38" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="E38" t="n">
         <v>6.12</v>
       </c>
       <c r="F38" t="n">
-        <v>84787.27822357723</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>6.131999999999993</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="C39" t="n">
         <v>6.15</v>
@@ -1737,13 +1755,13 @@
         <v>6.15</v>
       </c>
       <c r="E39" t="n">
-        <v>6.15</v>
+        <v>6.12</v>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>84787.27822357723</v>
       </c>
       <c r="G39" t="n">
-        <v>6.133999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1793,10 @@
         <v>6.15</v>
       </c>
       <c r="F40" t="n">
-        <v>61179.1869</v>
+        <v>70</v>
       </c>
       <c r="G40" t="n">
-        <v>6.135999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>6.15</v>
       </c>
       <c r="F41" t="n">
-        <v>162601.626</v>
+        <v>61179.1869</v>
       </c>
       <c r="G41" t="n">
-        <v>6.143999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1863,10 @@
         <v>6.15</v>
       </c>
       <c r="F42" t="n">
-        <v>215.0076</v>
+        <v>162601.626</v>
       </c>
       <c r="G42" t="n">
-        <v>6.149999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1898,10 @@
         <v>6.15</v>
       </c>
       <c r="F43" t="n">
-        <v>61996.6601</v>
+        <v>215.0076</v>
       </c>
       <c r="G43" t="n">
-        <v>6.149999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1933,10 @@
         <v>6.15</v>
       </c>
       <c r="F44" t="n">
-        <v>20891.426</v>
+        <v>61996.6601</v>
       </c>
       <c r="G44" t="n">
-        <v>6.149999999999991</v>
+        <v>6.139166666666659</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1968,10 @@
         <v>6.15</v>
       </c>
       <c r="F45" t="n">
-        <v>3111.9139</v>
+        <v>20891.426</v>
       </c>
       <c r="G45" t="n">
-        <v>6.149999999999991</v>
+        <v>6.139666666666659</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>6.15</v>
       </c>
       <c r="F46" t="n">
-        <v>61062.6634</v>
+        <v>3111.9139</v>
       </c>
       <c r="G46" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2038,10 @@
         <v>6.15</v>
       </c>
       <c r="F47" t="n">
-        <v>8397.336600000001</v>
+        <v>61062.6634</v>
       </c>
       <c r="G47" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2073,10 @@
         <v>6.15</v>
       </c>
       <c r="F48" t="n">
-        <v>540</v>
+        <v>8397.336600000001</v>
       </c>
       <c r="G48" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2108,10 @@
         <v>6.15</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>540</v>
       </c>
       <c r="G49" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2128,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2178,10 @@
         <v>6.15</v>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2213,10 @@
         <v>6.15</v>
       </c>
       <c r="F52" t="n">
-        <v>13489.2592</v>
+        <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2248,10 @@
         <v>6.15</v>
       </c>
       <c r="F53" t="n">
-        <v>25310.7408</v>
+        <v>13489.2592</v>
       </c>
       <c r="G53" t="n">
-        <v>6.149999999999991</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="C54" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="D54" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="E54" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="F54" t="n">
-        <v>1426.9696</v>
+        <v>25310.7408</v>
       </c>
       <c r="G54" t="n">
-        <v>6.153999999999992</v>
+        <v>6.140166666666659</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,7 +2306,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C55" t="n">
         <v>6.17</v>
@@ -2297,13 +2315,13 @@
         <v>6.17</v>
       </c>
       <c r="E55" t="n">
-        <v>6.14</v>
+        <v>6.16</v>
       </c>
       <c r="F55" t="n">
-        <v>9010</v>
+        <v>1426.9696</v>
       </c>
       <c r="G55" t="n">
-        <v>6.157999999999992</v>
+        <v>6.140499999999992</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2332,13 +2350,13 @@
         <v>6.17</v>
       </c>
       <c r="E56" t="n">
-        <v>6.17</v>
+        <v>6.14</v>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>9010</v>
       </c>
       <c r="G56" t="n">
-        <v>6.161999999999994</v>
+        <v>6.140833333333327</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2388,10 @@
         <v>6.17</v>
       </c>
       <c r="F57" t="n">
-        <v>88.8888</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="n">
-        <v>6.165999999999994</v>
+        <v>6.141166666666661</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2423,10 @@
         <v>6.17</v>
       </c>
       <c r="F58" t="n">
-        <v>8921.111199999999</v>
+        <v>88.8888</v>
       </c>
       <c r="G58" t="n">
-        <v>6.169999999999995</v>
+        <v>6.141499999999994</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2458,10 @@
         <v>6.17</v>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>8921.111199999999</v>
       </c>
       <c r="G59" t="n">
-        <v>6.169999999999995</v>
+        <v>6.141833333333328</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2484,19 @@
         <v>6.17</v>
       </c>
       <c r="C60" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D60" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E60" t="n">
         <v>6.17</v>
       </c>
       <c r="F60" t="n">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="n">
-        <v>6.171999999999994</v>
+        <v>6.142166666666663</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2516,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="C61" t="n">
         <v>6.18</v>
@@ -2507,13 +2525,13 @@
         <v>6.18</v>
       </c>
       <c r="E61" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="F61" t="n">
-        <v>57.6213</v>
+        <v>60000</v>
       </c>
       <c r="G61" t="n">
-        <v>6.173999999999994</v>
+        <v>6.142666666666663</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,7 +2551,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="C62" t="n">
         <v>6.18</v>
@@ -2542,13 +2560,13 @@
         <v>6.18</v>
       </c>
       <c r="E62" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="F62" t="n">
-        <v>4106.2483</v>
+        <v>57.6213</v>
       </c>
       <c r="G62" t="n">
-        <v>6.175999999999993</v>
+        <v>6.143666666666663</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,7 +2586,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="C63" t="n">
         <v>6.18</v>
@@ -2577,13 +2595,13 @@
         <v>6.18</v>
       </c>
       <c r="E63" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="F63" t="n">
-        <v>100</v>
+        <v>4106.2483</v>
       </c>
       <c r="G63" t="n">
-        <v>6.177999999999993</v>
+        <v>6.145166666666664</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="C64" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="D64" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="E64" t="n">
-        <v>6.19</v>
+        <v>6.18</v>
       </c>
       <c r="F64" t="n">
-        <v>7425.7835</v>
+        <v>100</v>
       </c>
       <c r="G64" t="n">
-        <v>6.181999999999992</v>
+        <v>6.146166666666663</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2668,10 @@
         <v>6.19</v>
       </c>
       <c r="F65" t="n">
-        <v>112.3695</v>
+        <v>7425.7835</v>
       </c>
       <c r="G65" t="n">
-        <v>6.183999999999992</v>
+        <v>6.14733333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2703,10 @@
         <v>6.19</v>
       </c>
       <c r="F66" t="n">
-        <v>300</v>
+        <v>112.3695</v>
       </c>
       <c r="G66" t="n">
-        <v>6.185999999999991</v>
+        <v>6.148166666666664</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,7 +2726,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.16</v>
+        <v>6.19</v>
       </c>
       <c r="C67" t="n">
         <v>6.19</v>
@@ -2717,13 +2735,13 @@
         <v>6.19</v>
       </c>
       <c r="E67" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="F67" t="n">
-        <v>120020</v>
+        <v>300</v>
       </c>
       <c r="G67" t="n">
-        <v>6.187999999999991</v>
+        <v>6.148999999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="C68" t="n">
         <v>6.19</v>
       </c>
-      <c r="C68" t="n">
-        <v>6.2</v>
-      </c>
       <c r="D68" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="E68" t="n">
         <v>6.15</v>
       </c>
       <c r="F68" t="n">
-        <v>139095.2985</v>
+        <v>120020</v>
       </c>
       <c r="G68" t="n">
-        <v>6.191999999999991</v>
+        <v>6.150333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="C69" t="n">
         <v>6.2</v>
@@ -2787,13 +2805,13 @@
         <v>6.2</v>
       </c>
       <c r="E69" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="F69" t="n">
-        <v>97486.5241</v>
+        <v>139095.2985</v>
       </c>
       <c r="G69" t="n">
-        <v>6.193999999999992</v>
+        <v>6.151499999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2843,10 @@
         <v>6.16</v>
       </c>
       <c r="F70" t="n">
-        <v>128875.2041</v>
+        <v>97486.5241</v>
       </c>
       <c r="G70" t="n">
-        <v>6.195999999999992</v>
+        <v>6.152499999999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2866,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.22</v>
+        <v>6.17</v>
       </c>
       <c r="C71" t="n">
-        <v>6.24</v>
+        <v>6.2</v>
       </c>
       <c r="D71" t="n">
-        <v>6.24</v>
+        <v>6.2</v>
       </c>
       <c r="E71" t="n">
-        <v>6.22</v>
+        <v>6.16</v>
       </c>
       <c r="F71" t="n">
-        <v>1141.9678</v>
+        <v>128875.2041</v>
       </c>
       <c r="G71" t="n">
-        <v>6.205999999999991</v>
+        <v>6.153499999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,7 +2901,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="C72" t="n">
         <v>6.24</v>
@@ -2892,13 +2910,13 @@
         <v>6.24</v>
       </c>
       <c r="E72" t="n">
-        <v>6.24</v>
+        <v>6.22</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>1141.9678</v>
       </c>
       <c r="G72" t="n">
-        <v>6.21599999999999</v>
+        <v>6.155499999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2948,10 @@
         <v>6.24</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G73" t="n">
-        <v>6.22399999999999</v>
+        <v>6.157166666666664</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2968,7 +2986,7 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>6.23199999999999</v>
+        <v>6.158666666666664</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,7 +3006,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="C75" t="n">
         <v>6.24</v>
@@ -2997,13 +3015,13 @@
         <v>6.24</v>
       </c>
       <c r="E75" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="F75" t="n">
-        <v>6542.7128</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>6.23999999999999</v>
+        <v>6.160333333333331</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="C76" t="n">
         <v>6.24</v>
       </c>
-      <c r="C76" t="n">
-        <v>6.3</v>
-      </c>
       <c r="D76" t="n">
-        <v>6.3</v>
+        <v>6.24</v>
       </c>
       <c r="E76" t="n">
-        <v>6.24</v>
+        <v>6.23</v>
       </c>
       <c r="F76" t="n">
-        <v>65027.0507</v>
+        <v>6542.7128</v>
       </c>
       <c r="G76" t="n">
-        <v>6.25199999999999</v>
+        <v>6.161999999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
       <c r="C77" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="D77" t="n">
-        <v>6.28</v>
+        <v>6.3</v>
       </c>
       <c r="E77" t="n">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
       <c r="F77" t="n">
-        <v>133.9285</v>
+        <v>65027.0507</v>
       </c>
       <c r="G77" t="n">
-        <v>6.259999999999989</v>
+        <v>6.164499999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="C78" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="D78" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="E78" t="n">
-        <v>6.3</v>
+        <v>6.28</v>
       </c>
       <c r="F78" t="n">
-        <v>50843.0222</v>
+        <v>133.9285</v>
       </c>
       <c r="G78" t="n">
-        <v>6.271999999999989</v>
+        <v>6.166666666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="C79" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="D79" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="E79" t="n">
-        <v>6.37</v>
+        <v>6.3</v>
       </c>
       <c r="F79" t="n">
-        <v>54.3015</v>
+        <v>50843.0222</v>
       </c>
       <c r="G79" t="n">
-        <v>6.297999999999988</v>
+        <v>6.169166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3193,10 @@
         <v>6.37</v>
       </c>
       <c r="F80" t="n">
-        <v>222</v>
+        <v>54.3015</v>
       </c>
       <c r="G80" t="n">
-        <v>6.323999999999987</v>
+        <v>6.172833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,7 +3216,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
       <c r="C81" t="n">
         <v>6.37</v>
@@ -3207,13 +3225,13 @@
         <v>6.37</v>
       </c>
       <c r="E81" t="n">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
       <c r="F81" t="n">
-        <v>12611.0298</v>
+        <v>222</v>
       </c>
       <c r="G81" t="n">
-        <v>6.337999999999986</v>
+        <v>6.176500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.39</v>
+        <v>6.36</v>
       </c>
       <c r="C82" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="D82" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="E82" t="n">
-        <v>6.39</v>
+        <v>6.36</v>
       </c>
       <c r="F82" t="n">
-        <v>78313.4898</v>
+        <v>12611.0298</v>
       </c>
       <c r="G82" t="n">
-        <v>6.359999999999985</v>
+        <v>6.180166666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,28 +3286,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="C83" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D83" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E83" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F83" t="n">
-        <v>26765.2206</v>
+        <v>78313.4898</v>
       </c>
       <c r="G83" t="n">
-        <v>6.375999999999985</v>
+        <v>6.184333333333334</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3303,28 +3321,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.26</v>
+        <v>6.38</v>
       </c>
       <c r="C84" t="n">
-        <v>6.26</v>
+        <v>6.38</v>
       </c>
       <c r="D84" t="n">
-        <v>6.26</v>
+        <v>6.38</v>
       </c>
       <c r="E84" t="n">
-        <v>6.26</v>
+        <v>6.38</v>
       </c>
       <c r="F84" t="n">
-        <v>4508.9769</v>
+        <v>26765.2206</v>
       </c>
       <c r="G84" t="n">
-        <v>6.353999999999986</v>
+        <v>6.188333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3341,25 +3359,25 @@
         <v>6.26</v>
       </c>
       <c r="C85" t="n">
-        <v>6.38</v>
+        <v>6.26</v>
       </c>
       <c r="D85" t="n">
-        <v>6.38</v>
+        <v>6.26</v>
       </c>
       <c r="E85" t="n">
         <v>6.26</v>
       </c>
       <c r="F85" t="n">
-        <v>134.7257</v>
+        <v>4508.9769</v>
       </c>
       <c r="G85" t="n">
-        <v>6.355999999999986</v>
+        <v>6.190333333333334</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3373,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.37</v>
+        <v>6.26</v>
       </c>
       <c r="C86" t="n">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
       <c r="D86" t="n">
-        <v>6.37</v>
+        <v>6.38</v>
       </c>
       <c r="E86" t="n">
-        <v>6.37</v>
+        <v>6.26</v>
       </c>
       <c r="F86" t="n">
-        <v>4608.9769</v>
+        <v>134.7257</v>
       </c>
       <c r="G86" t="n">
-        <v>6.355999999999986</v>
+        <v>6.194666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="C87" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="D87" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="E87" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>4608.9769</v>
       </c>
       <c r="G87" t="n">
-        <v>6.353999999999985</v>
+        <v>6.199000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3461,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="C88" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="D88" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="E88" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="F88" t="n">
-        <v>16776.4982</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>6.349999999999985</v>
+        <v>6.203000000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3496,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="C89" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="D89" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="E89" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>16776.4982</v>
       </c>
       <c r="G89" t="n">
-        <v>6.371999999999986</v>
+        <v>6.206666666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3543,10 @@
         <v>6.37</v>
       </c>
       <c r="F90" t="n">
-        <v>30194.631</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>6.369999999999985</v>
+        <v>6.210500000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3578,10 @@
         <v>6.37</v>
       </c>
       <c r="F91" t="n">
-        <v>62794.3485</v>
+        <v>30194.631</v>
       </c>
       <c r="G91" t="n">
-        <v>6.369999999999985</v>
+        <v>6.214333333333335</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="C92" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="D92" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="E92" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>62794.3485</v>
       </c>
       <c r="G92" t="n">
-        <v>6.369999999999985</v>
+        <v>6.218000000000003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3648,10 @@
         <v>6.38</v>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G93" t="n">
-        <v>6.373999999999985</v>
+        <v>6.222500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="C94" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D94" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E94" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="F94" t="n">
-        <v>1201.4084</v>
+        <v>30</v>
       </c>
       <c r="G94" t="n">
-        <v>6.377999999999985</v>
+        <v>6.226500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3706,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="C95" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="D95" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="E95" t="n">
-        <v>6.37</v>
+        <v>6.36</v>
       </c>
       <c r="F95" t="n">
-        <v>1396.8243</v>
+        <v>1201.4084</v>
       </c>
       <c r="G95" t="n">
-        <v>6.377999999999985</v>
+        <v>6.230666666666669</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="C96" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="D96" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="E96" t="n">
-        <v>6.39</v>
+        <v>6.37</v>
       </c>
       <c r="F96" t="n">
-        <v>34633.6854</v>
+        <v>1396.8243</v>
       </c>
       <c r="G96" t="n">
-        <v>6.381999999999985</v>
+        <v>6.234500000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="C97" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D97" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E97" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F97" t="n">
-        <v>3210</v>
+        <v>34633.6854</v>
       </c>
       <c r="G97" t="n">
-        <v>6.381999999999985</v>
+        <v>6.239166666666669</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C98" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D98" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E98" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>3210</v>
       </c>
       <c r="G98" t="n">
-        <v>6.383999999999984</v>
+        <v>6.243500000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3846,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="C99" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D99" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E99" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F99" t="n">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>6.381999999999984</v>
+        <v>6.247500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3866,19 +3884,19 @@
         <v>6.38</v>
       </c>
       <c r="C100" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D100" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E100" t="n">
         <v>6.38</v>
       </c>
       <c r="F100" t="n">
-        <v>31543.0906</v>
+        <v>7000</v>
       </c>
       <c r="G100" t="n">
-        <v>6.385999999999983</v>
+        <v>6.251333333333336</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3919,19 @@
         <v>6.38</v>
       </c>
       <c r="C101" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D101" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E101" t="n">
         <v>6.38</v>
       </c>
       <c r="F101" t="n">
-        <v>21.375</v>
+        <v>31543.0906</v>
       </c>
       <c r="G101" t="n">
-        <v>6.383999999999983</v>
+        <v>6.255333333333336</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C102" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D102" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E102" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F102" t="n">
-        <v>18.701</v>
+        <v>21.375</v>
       </c>
       <c r="G102" t="n">
-        <v>6.385999999999983</v>
+        <v>6.25916666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3989,19 @@
         <v>6.39</v>
       </c>
       <c r="C103" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D103" t="n">
         <v>6.39</v>
       </c>
       <c r="E103" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F103" t="n">
-        <v>100144.6092</v>
+        <v>18.701</v>
       </c>
       <c r="G103" t="n">
-        <v>6.383999999999983</v>
+        <v>6.263166666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4024,19 @@
         <v>6.39</v>
       </c>
       <c r="C104" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D104" t="n">
         <v>6.39</v>
       </c>
       <c r="E104" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F104" t="n">
-        <v>14.0453</v>
+        <v>100144.6092</v>
       </c>
       <c r="G104" t="n">
-        <v>6.385999999999983</v>
+        <v>6.267000000000004</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4059,19 @@
         <v>6.39</v>
       </c>
       <c r="C105" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D105" t="n">
         <v>6.39</v>
       </c>
       <c r="E105" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F105" t="n">
-        <v>10058.2231</v>
+        <v>14.0453</v>
       </c>
       <c r="G105" t="n">
-        <v>6.383999999999983</v>
+        <v>6.271000000000003</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4076,19 +4094,19 @@
         <v>6.39</v>
       </c>
       <c r="C106" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D106" t="n">
         <v>6.39</v>
       </c>
       <c r="E106" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F106" t="n">
-        <v>20.9702</v>
+        <v>10058.2231</v>
       </c>
       <c r="G106" t="n">
-        <v>6.385999999999983</v>
+        <v>6.274833333333337</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="C107" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="D107" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E107" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="F107" t="n">
-        <v>39785</v>
+        <v>20.9702</v>
       </c>
       <c r="G107" t="n">
-        <v>6.383999999999983</v>
+        <v>6.278833333333337</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4173,10 @@
         <v>6.38</v>
       </c>
       <c r="F108" t="n">
-        <v>37910</v>
+        <v>39785</v>
       </c>
       <c r="G108" t="n">
-        <v>6.383999999999984</v>
+        <v>6.282666666666671</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4208,10 @@
         <v>6.38</v>
       </c>
       <c r="F109" t="n">
-        <v>53901</v>
+        <v>37910</v>
       </c>
       <c r="G109" t="n">
-        <v>6.381999999999984</v>
+        <v>6.286500000000005</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4243,10 @@
         <v>6.38</v>
       </c>
       <c r="F110" t="n">
-        <v>26601</v>
+        <v>53901</v>
       </c>
       <c r="G110" t="n">
-        <v>6.381999999999985</v>
+        <v>6.290333333333338</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,10 +4278,10 @@
         <v>6.38</v>
       </c>
       <c r="F111" t="n">
-        <v>11625.3142</v>
+        <v>26601</v>
       </c>
       <c r="G111" t="n">
-        <v>6.379999999999984</v>
+        <v>6.294166666666672</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4304,19 @@
         <v>6.38</v>
       </c>
       <c r="C112" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="D112" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E112" t="n">
         <v>6.38</v>
       </c>
       <c r="F112" t="n">
-        <v>171.7917</v>
+        <v>11625.3142</v>
       </c>
       <c r="G112" t="n">
-        <v>6.381999999999985</v>
+        <v>6.298000000000005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,7 +4336,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C113" t="n">
         <v>6.39</v>
@@ -4327,13 +4345,13 @@
         <v>6.39</v>
       </c>
       <c r="E113" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="F113" t="n">
-        <v>100</v>
+        <v>171.7917</v>
       </c>
       <c r="G113" t="n">
-        <v>6.383999999999984</v>
+        <v>6.302000000000006</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="C114" t="n">
-        <v>6.36</v>
+        <v>6.39</v>
       </c>
       <c r="D114" t="n">
-        <v>6.38</v>
+        <v>6.39</v>
       </c>
       <c r="E114" t="n">
-        <v>6.36</v>
+        <v>6.39</v>
       </c>
       <c r="F114" t="n">
-        <v>102950.9171</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>6.379999999999985</v>
+        <v>6.306000000000006</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="C115" t="n">
-        <v>6.39</v>
+        <v>6.36</v>
       </c>
       <c r="D115" t="n">
-        <v>6.39</v>
+        <v>6.38</v>
       </c>
       <c r="E115" t="n">
-        <v>6.39</v>
+        <v>6.36</v>
       </c>
       <c r="F115" t="n">
-        <v>100</v>
+        <v>102950.9171</v>
       </c>
       <c r="G115" t="n">
-        <v>6.381999999999985</v>
+        <v>6.309166666666672</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="C116" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="D116" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="E116" t="n">
-        <v>6.37</v>
+        <v>6.39</v>
       </c>
       <c r="F116" t="n">
-        <v>67767.3077</v>
+        <v>100</v>
       </c>
       <c r="G116" t="n">
-        <v>6.379999999999985</v>
+        <v>6.312833333333339</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="C117" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="D117" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="E117" t="n">
-        <v>6.38</v>
+        <v>6.37</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>67767.3077</v>
       </c>
       <c r="G117" t="n">
-        <v>6.377999999999984</v>
+        <v>6.316166666666672</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="C118" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="D118" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="E118" t="n">
-        <v>6.35</v>
+        <v>6.38</v>
       </c>
       <c r="F118" t="n">
-        <v>14466</v>
+        <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>6.371999999999984</v>
+        <v>6.319666666666672</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="C119" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="D119" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="E119" t="n">
-        <v>6.38</v>
+        <v>6.35</v>
       </c>
       <c r="F119" t="n">
-        <v>10</v>
+        <v>14466</v>
       </c>
       <c r="G119" t="n">
-        <v>6.375999999999985</v>
+        <v>6.322833333333338</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4593,10 @@
         <v>6.38</v>
       </c>
       <c r="F120" t="n">
-        <v>280079.467</v>
+        <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>6.373999999999985</v>
+        <v>6.326333333333338</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="C121" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="D121" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="E121" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="F121" t="n">
-        <v>5169.6486</v>
+        <v>280079.467</v>
       </c>
       <c r="G121" t="n">
-        <v>6.371999999999985</v>
+        <v>6.329666666666671</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="C122" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="D122" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="E122" t="n">
-        <v>6.38</v>
+        <v>6.36</v>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>5169.6486</v>
       </c>
       <c r="G122" t="n">
-        <v>6.371999999999985</v>
+        <v>6.332666666666671</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="C123" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="D123" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="E123" t="n">
-        <v>6.36</v>
+        <v>6.38</v>
       </c>
       <c r="F123" t="n">
-        <v>36273.3514</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>6.371999999999986</v>
+        <v>6.336000000000004</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4706,19 +4724,19 @@
         <v>6.36</v>
       </c>
       <c r="C124" t="n">
-        <v>6.35</v>
+        <v>6.36</v>
       </c>
       <c r="D124" t="n">
         <v>6.36</v>
       </c>
       <c r="E124" t="n">
-        <v>6.35</v>
+        <v>6.36</v>
       </c>
       <c r="F124" t="n">
-        <v>96774.5275</v>
+        <v>36273.3514</v>
       </c>
       <c r="G124" t="n">
-        <v>6.365999999999986</v>
+        <v>6.339000000000004</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6.31</v>
+        <v>6.36</v>
       </c>
       <c r="C125" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="D125" t="n">
-        <v>6.31</v>
+        <v>6.36</v>
       </c>
       <c r="E125" t="n">
-        <v>6.3</v>
+        <v>6.35</v>
       </c>
       <c r="F125" t="n">
-        <v>43034</v>
+        <v>96774.5275</v>
       </c>
       <c r="G125" t="n">
-        <v>6.349999999999986</v>
+        <v>6.341666666666671</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="C126" t="n">
         <v>6.3</v>
       </c>
       <c r="D126" t="n">
-        <v>6.3</v>
+        <v>6.31</v>
       </c>
       <c r="E126" t="n">
         <v>6.3</v>
       </c>
       <c r="F126" t="n">
-        <v>88.8888</v>
+        <v>43034</v>
       </c>
       <c r="G126" t="n">
-        <v>6.337999999999987</v>
+        <v>6.343500000000005</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4838,10 @@
         <v>6.3</v>
       </c>
       <c r="F127" t="n">
-        <v>4897.51</v>
+        <v>88.8888</v>
       </c>
       <c r="G127" t="n">
-        <v>6.321999999999987</v>
+        <v>6.345333333333339</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="C128" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="D128" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="E128" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="F128" t="n">
-        <v>16776.4983</v>
+        <v>4897.51</v>
       </c>
       <c r="G128" t="n">
-        <v>6.303999999999986</v>
+        <v>6.347166666666672</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4881,19 +4899,19 @@
         <v>6.27</v>
       </c>
       <c r="C129" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="D129" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="E129" t="n">
         <v>6.27</v>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>16776.4983</v>
       </c>
       <c r="G129" t="n">
-        <v>6.293999999999985</v>
+        <v>6.348333333333339</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4934,19 @@
         <v>6.27</v>
       </c>
       <c r="C130" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="D130" t="n">
-        <v>6.27</v>
+        <v>6.3</v>
       </c>
       <c r="E130" t="n">
         <v>6.27</v>
       </c>
       <c r="F130" t="n">
-        <v>4287.5549</v>
+        <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>6.287999999999984</v>
+        <v>6.350000000000006</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4951,19 +4969,19 @@
         <v>6.27</v>
       </c>
       <c r="C131" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="D131" t="n">
-        <v>6.3</v>
+        <v>6.27</v>
       </c>
       <c r="E131" t="n">
         <v>6.27</v>
       </c>
       <c r="F131" t="n">
-        <v>3935.9468</v>
+        <v>4287.5549</v>
       </c>
       <c r="G131" t="n">
-        <v>6.287999999999984</v>
+        <v>6.351166666666672</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.21</v>
+        <v>6.27</v>
       </c>
       <c r="C132" t="n">
-        <v>6.17</v>
+        <v>6.3</v>
       </c>
       <c r="D132" t="n">
-        <v>6.21</v>
+        <v>6.3</v>
       </c>
       <c r="E132" t="n">
-        <v>6.17</v>
+        <v>6.27</v>
       </c>
       <c r="F132" t="n">
-        <v>41026.4648</v>
+        <v>3935.9468</v>
       </c>
       <c r="G132" t="n">
-        <v>6.261999999999984</v>
+        <v>6.352166666666673</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.18</v>
+        <v>6.21</v>
       </c>
       <c r="C133" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D133" t="n">
-        <v>6.18</v>
+        <v>6.21</v>
       </c>
       <c r="E133" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>41026.4648</v>
       </c>
       <c r="G133" t="n">
-        <v>6.243999999999985</v>
+        <v>6.351000000000005</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5056,19 +5074,19 @@
         <v>6.18</v>
       </c>
       <c r="C134" t="n">
-        <v>6.29</v>
+        <v>6.18</v>
       </c>
       <c r="D134" t="n">
-        <v>6.29</v>
+        <v>6.18</v>
       </c>
       <c r="E134" t="n">
         <v>6.18</v>
       </c>
       <c r="F134" t="n">
-        <v>720.0807</v>
+        <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>6.241999999999985</v>
+        <v>6.350000000000006</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5091,19 +5109,19 @@
         <v>6.18</v>
       </c>
       <c r="C135" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="D135" t="n">
-        <v>6.18</v>
+        <v>6.29</v>
       </c>
       <c r="E135" t="n">
         <v>6.18</v>
       </c>
       <c r="F135" t="n">
-        <v>444</v>
+        <v>720.0807</v>
       </c>
       <c r="G135" t="n">
-        <v>6.223999999999986</v>
+        <v>6.350833333333339</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5141,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6.25</v>
+        <v>6.18</v>
       </c>
       <c r="C136" t="n">
-        <v>6.25</v>
+        <v>6.18</v>
       </c>
       <c r="D136" t="n">
-        <v>6.25</v>
+        <v>6.18</v>
       </c>
       <c r="E136" t="n">
-        <v>6.25</v>
+        <v>6.18</v>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>444</v>
       </c>
       <c r="G136" t="n">
-        <v>6.213999999999986</v>
+        <v>6.349833333333339</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6.27</v>
+        <v>6.25</v>
       </c>
       <c r="C137" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="D137" t="n">
-        <v>6.27</v>
+        <v>6.25</v>
       </c>
       <c r="E137" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="F137" t="n">
-        <v>1821.4238</v>
+        <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>6.215999999999985</v>
+        <v>6.349000000000006</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C138" t="n">
         <v>6.18</v>
       </c>
-      <c r="C138" t="n">
-        <v>6.26</v>
-      </c>
       <c r="D138" t="n">
-        <v>6.26</v>
+        <v>6.27</v>
       </c>
       <c r="E138" t="n">
         <v>6.18</v>
       </c>
       <c r="F138" t="n">
-        <v>110.4838</v>
+        <v>1821.4238</v>
       </c>
       <c r="G138" t="n">
-        <v>6.231999999999985</v>
+        <v>6.347333333333339</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5246,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="C139" t="n">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="D139" t="n">
-        <v>6.25</v>
+        <v>6.26</v>
       </c>
       <c r="E139" t="n">
-        <v>6.24</v>
+        <v>6.18</v>
       </c>
       <c r="F139" t="n">
-        <v>16291.7304</v>
+        <v>110.4838</v>
       </c>
       <c r="G139" t="n">
-        <v>6.223999999999985</v>
+        <v>6.346666666666673</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,7 +5281,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="C140" t="n">
         <v>6.25</v>
@@ -5272,13 +5290,13 @@
         <v>6.25</v>
       </c>
       <c r="E140" t="n">
-        <v>6.25</v>
+        <v>6.24</v>
       </c>
       <c r="F140" t="n">
-        <v>1209.3482</v>
+        <v>16291.7304</v>
       </c>
       <c r="G140" t="n">
-        <v>6.237999999999985</v>
+        <v>6.344666666666672</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5316,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="C141" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="D141" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="E141" t="n">
-        <v>6.24</v>
+        <v>6.25</v>
       </c>
       <c r="F141" t="n">
-        <v>34165.0003</v>
+        <v>1209.3482</v>
       </c>
       <c r="G141" t="n">
-        <v>6.235999999999986</v>
+        <v>6.342666666666672</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,22 +5351,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="C142" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="D142" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="E142" t="n">
-        <v>6.23</v>
+        <v>6.24</v>
       </c>
       <c r="F142" t="n">
-        <v>10002</v>
+        <v>34165.0003</v>
       </c>
       <c r="G142" t="n">
-        <v>6.245999999999985</v>
+        <v>6.340500000000006</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,7 +5386,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6.18</v>
+        <v>6.23</v>
       </c>
       <c r="C143" t="n">
         <v>6.23</v>
@@ -5377,13 +5395,13 @@
         <v>6.23</v>
       </c>
       <c r="E143" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="F143" t="n">
-        <v>938.543</v>
+        <v>10002</v>
       </c>
       <c r="G143" t="n">
-        <v>6.239999999999985</v>
+        <v>6.337833333333339</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,7 +5421,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.22</v>
+        <v>6.18</v>
       </c>
       <c r="C144" t="n">
         <v>6.23</v>
@@ -5412,13 +5430,13 @@
         <v>6.23</v>
       </c>
       <c r="E144" t="n">
-        <v>6.22</v>
+        <v>6.17</v>
       </c>
       <c r="F144" t="n">
-        <v>350555.7038</v>
+        <v>938.543</v>
       </c>
       <c r="G144" t="n">
-        <v>6.235999999999985</v>
+        <v>6.33533333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,7 +5456,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6.23</v>
+        <v>6.22</v>
       </c>
       <c r="C145" t="n">
         <v>6.23</v>
@@ -5447,13 +5465,13 @@
         <v>6.23</v>
       </c>
       <c r="E145" t="n">
-        <v>6.23</v>
+        <v>6.22</v>
       </c>
       <c r="F145" t="n">
-        <v>3333</v>
+        <v>350555.7038</v>
       </c>
       <c r="G145" t="n">
-        <v>6.231999999999985</v>
+        <v>6.33483333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5491,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="C146" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="D146" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="E146" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="F146" t="n">
-        <v>4385.3691</v>
+        <v>3333</v>
       </c>
       <c r="G146" t="n">
-        <v>6.217999999999985</v>
+        <v>6.332333333333341</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5520,10 +5538,10 @@
         <v>6.17</v>
       </c>
       <c r="F147" t="n">
-        <v>3175.0357</v>
+        <v>4385.3691</v>
       </c>
       <c r="G147" t="n">
-        <v>6.205999999999985</v>
+        <v>6.329000000000008</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5573,10 @@
         <v>6.17</v>
       </c>
       <c r="F148" t="n">
-        <v>51754.0178</v>
+        <v>3175.0357</v>
       </c>
       <c r="G148" t="n">
-        <v>6.193999999999985</v>
+        <v>6.325500000000008</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="C149" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="D149" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E149" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F149" t="n">
-        <v>999886.6931</v>
+        <v>51754.0178</v>
       </c>
       <c r="G149" t="n">
-        <v>6.171999999999985</v>
+        <v>6.322333333333342</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.11</v>
+        <v>6.16</v>
       </c>
       <c r="C150" t="n">
         <v>6.12</v>
       </c>
       <c r="D150" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E150" t="n">
         <v>6.12</v>
       </c>
-      <c r="E150" t="n">
-        <v>6.11</v>
-      </c>
       <c r="F150" t="n">
-        <v>164708.7042</v>
+        <v>999886.6931</v>
       </c>
       <c r="G150" t="n">
-        <v>6.149999999999985</v>
+        <v>6.318166666666674</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,7 +5666,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="C151" t="n">
         <v>6.12</v>
@@ -5657,13 +5675,13 @@
         <v>6.12</v>
       </c>
       <c r="E151" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="F151" t="n">
-        <v>195335.57</v>
+        <v>164708.7042</v>
       </c>
       <c r="G151" t="n">
-        <v>6.139999999999985</v>
+        <v>6.314000000000008</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5695,10 +5713,10 @@
         <v>6.12</v>
       </c>
       <c r="F152" t="n">
-        <v>3333</v>
+        <v>195335.57</v>
       </c>
       <c r="G152" t="n">
-        <v>6.129999999999984</v>
+        <v>6.309833333333342</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5730,10 +5748,10 @@
         <v>6.12</v>
       </c>
       <c r="F153" t="n">
-        <v>9890.732400000001</v>
+        <v>3333</v>
       </c>
       <c r="G153" t="n">
-        <v>6.119999999999983</v>
+        <v>6.305500000000008</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="C154" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="D154" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="E154" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="F154" t="n">
-        <v>1480</v>
+        <v>9890.732400000001</v>
       </c>
       <c r="G154" t="n">
-        <v>6.121999999999984</v>
+        <v>6.301166666666675</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5818,10 @@
         <v>6.13</v>
       </c>
       <c r="F155" t="n">
-        <v>39008.9122</v>
+        <v>1480</v>
       </c>
       <c r="G155" t="n">
-        <v>6.123999999999983</v>
+        <v>6.296833333333342</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="C156" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="D156" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="E156" t="n">
-        <v>6.14</v>
+        <v>6.13</v>
       </c>
       <c r="F156" t="n">
-        <v>263.6852</v>
+        <v>39008.9122</v>
       </c>
       <c r="G156" t="n">
-        <v>6.127999999999982</v>
+        <v>6.292833333333342</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5876,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="C157" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="D157" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="E157" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>263.6852</v>
       </c>
       <c r="G157" t="n">
-        <v>6.145999999999981</v>
+        <v>6.288666666666675</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6.14</v>
+        <v>6.21</v>
       </c>
       <c r="C158" t="n">
-        <v>6.13</v>
+        <v>6.21</v>
       </c>
       <c r="D158" t="n">
-        <v>6.14</v>
+        <v>6.21</v>
       </c>
       <c r="E158" t="n">
-        <v>6.13</v>
+        <v>6.21</v>
       </c>
       <c r="F158" t="n">
-        <v>203470.6698</v>
+        <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>6.147999999999981</v>
+        <v>6.285833333333342</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,22 +5946,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="C159" t="n">
-        <v>6.21</v>
+        <v>6.13</v>
       </c>
       <c r="D159" t="n">
-        <v>6.21</v>
+        <v>6.14</v>
       </c>
       <c r="E159" t="n">
-        <v>6.21</v>
+        <v>6.13</v>
       </c>
       <c r="F159" t="n">
-        <v>10</v>
+        <v>203470.6698</v>
       </c>
       <c r="G159" t="n">
-        <v>6.163999999999981</v>
+        <v>6.281500000000008</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5975,10 +5993,10 @@
         <v>6.21</v>
       </c>
       <c r="F160" t="n">
-        <v>27801.0015</v>
+        <v>10</v>
       </c>
       <c r="G160" t="n">
-        <v>6.17999999999998</v>
+        <v>6.278666666666675</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6010,10 +6028,10 @@
         <v>6.21</v>
       </c>
       <c r="F161" t="n">
-        <v>9364.7392</v>
+        <v>27801.0015</v>
       </c>
       <c r="G161" t="n">
-        <v>6.19399999999998</v>
+        <v>6.275666666666675</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="C162" t="n">
-        <v>6.14</v>
+        <v>6.21</v>
       </c>
       <c r="D162" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="E162" t="n">
-        <v>6.14</v>
+        <v>6.21</v>
       </c>
       <c r="F162" t="n">
-        <v>50000</v>
+        <v>9364.7392</v>
       </c>
       <c r="G162" t="n">
-        <v>6.17999999999998</v>
+        <v>6.272833333333341</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="C163" t="n">
-        <v>6.19</v>
+        <v>6.14</v>
       </c>
       <c r="D163" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="E163" t="n">
-        <v>6.19</v>
+        <v>6.14</v>
       </c>
       <c r="F163" t="n">
-        <v>13769.5912</v>
+        <v>50000</v>
       </c>
       <c r="G163" t="n">
-        <v>6.19199999999998</v>
+        <v>6.268666666666674</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,22 +6121,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="C164" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="D164" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="E164" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="F164" t="n">
-        <v>100</v>
+        <v>13769.5912</v>
       </c>
       <c r="G164" t="n">
-        <v>6.189999999999979</v>
+        <v>6.265500000000007</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="C165" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="D165" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="E165" t="n">
-        <v>6.22</v>
+        <v>6.2</v>
       </c>
       <c r="F165" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G165" t="n">
-        <v>6.191999999999979</v>
+        <v>6.262333333333341</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6176,19 +6194,19 @@
         <v>6.22</v>
       </c>
       <c r="C166" t="n">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
       <c r="D166" t="n">
         <v>6.22</v>
       </c>
       <c r="E166" t="n">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
       <c r="F166" t="n">
-        <v>49.925</v>
+        <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>6.181999999999978</v>
+        <v>6.259666666666675</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6226,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
       <c r="C167" t="n">
         <v>6.16</v>
       </c>
       <c r="D167" t="n">
-        <v>6.16</v>
+        <v>6.22</v>
       </c>
       <c r="E167" t="n">
         <v>6.16</v>
       </c>
       <c r="F167" t="n">
-        <v>14000</v>
+        <v>49.925</v>
       </c>
       <c r="G167" t="n">
-        <v>6.185999999999979</v>
+        <v>6.255833333333342</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6255,10 +6273,10 @@
         <v>6.16</v>
       </c>
       <c r="F168" t="n">
-        <v>489.8176</v>
+        <v>14000</v>
       </c>
       <c r="G168" t="n">
-        <v>6.179999999999978</v>
+        <v>6.252166666666676</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6296,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C169" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="D169" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E169" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F169" t="n">
-        <v>78000</v>
+        <v>489.8176</v>
       </c>
       <c r="G169" t="n">
-        <v>6.169999999999979</v>
+        <v>6.24850000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6334,19 @@
         <v>6.15</v>
       </c>
       <c r="C170" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="D170" t="n">
         <v>6.15</v>
       </c>
       <c r="E170" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="F170" t="n">
-        <v>40535.2608</v>
+        <v>78000</v>
       </c>
       <c r="G170" t="n">
-        <v>6.153999999999978</v>
+        <v>6.244666666666676</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6366,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="C171" t="n">
         <v>6.14</v>
       </c>
       <c r="D171" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="E171" t="n">
         <v>6.14</v>
       </c>
       <c r="F171" t="n">
-        <v>263021.2197</v>
+        <v>40535.2608</v>
       </c>
       <c r="G171" t="n">
-        <v>6.149999999999978</v>
+        <v>6.240666666666676</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6404,19 @@
         <v>6.14</v>
       </c>
       <c r="C172" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="D172" t="n">
         <v>6.14</v>
       </c>
       <c r="E172" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="F172" t="n">
-        <v>100000</v>
+        <v>263021.2197</v>
       </c>
       <c r="G172" t="n">
-        <v>6.143999999999978</v>
+        <v>6.236666666666676</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6436,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="C173" t="n">
         <v>6.13</v>
       </c>
       <c r="D173" t="n">
-        <v>6.13</v>
+        <v>6.14</v>
       </c>
       <c r="E173" t="n">
         <v>6.13</v>
       </c>
       <c r="F173" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G173" t="n">
-        <v>6.137999999999978</v>
+        <v>6.232333333333343</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6465,10 +6483,10 @@
         <v>6.13</v>
       </c>
       <c r="F174" t="n">
-        <v>10601.4204</v>
+        <v>50000</v>
       </c>
       <c r="G174" t="n">
-        <v>6.133999999999977</v>
+        <v>6.22800000000001</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6506,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="C175" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="D175" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="E175" t="n">
-        <v>6.15</v>
+        <v>6.13</v>
       </c>
       <c r="F175" t="n">
-        <v>2000</v>
+        <v>10601.4204</v>
       </c>
       <c r="G175" t="n">
-        <v>6.135999999999977</v>
+        <v>6.224166666666676</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6541,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C176" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="D176" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="E176" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F176" t="n">
-        <v>36849.8199</v>
+        <v>2000</v>
       </c>
       <c r="G176" t="n">
-        <v>6.133999999999977</v>
+        <v>6.220166666666676</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6570,10 +6588,10 @@
         <v>6.13</v>
       </c>
       <c r="F177" t="n">
-        <v>12283.2733</v>
+        <v>36849.8199</v>
       </c>
       <c r="G177" t="n">
-        <v>6.133999999999978</v>
+        <v>6.216166666666676</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6605,10 +6623,10 @@
         <v>6.13</v>
       </c>
       <c r="F178" t="n">
-        <v>65548.9347</v>
+        <v>12283.2733</v>
       </c>
       <c r="G178" t="n">
-        <v>6.133999999999978</v>
+        <v>6.212000000000009</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,35 +6646,31 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="C179" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="D179" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="E179" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="F179" t="n">
-        <v>10</v>
+        <v>65548.9347</v>
       </c>
       <c r="G179" t="n">
-        <v>6.147999999999978</v>
+        <v>6.208166666666675</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K179" t="n">
-        <v>6.13</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
@@ -6667,1314 +6681,1165 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10</v>
+      </c>
+      <c r="G180" t="n">
+        <v>6.205166666666675</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>6.13</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C181" t="n">
         <v>6.06</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D181" t="n">
         <v>6.13</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E181" t="n">
         <v>6.06</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F181" t="n">
         <v>417304.6185</v>
       </c>
-      <c r="G180" t="n">
-        <v>6.129999999999979</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K180" t="n">
+      <c r="G181" t="n">
+        <v>6.199833333333342</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C182" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D182" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E182" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1839.6449</v>
+      </c>
+      <c r="G182" t="n">
+        <v>6.194666666666675</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C183" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E183" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>76.95820000000001</v>
+      </c>
+      <c r="G183" t="n">
+        <v>6.189166666666676</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D184" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19990</v>
+      </c>
+      <c r="G184" t="n">
+        <v>6.184000000000009</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C185" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E185" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G185" t="n">
+        <v>6.179000000000008</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C186" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D186" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E186" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F186" t="n">
+        <v>10</v>
+      </c>
+      <c r="G186" t="n">
+        <v>6.176333333333342</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
         <v>6.13</v>
       </c>
-      <c r="L180" t="inlineStr">
+      <c r="C187" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D187" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F187" t="n">
+        <v>280.6443</v>
+      </c>
+      <c r="G187" t="n">
+        <v>6.173500000000008</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C188" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D188" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E188" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F188" t="n">
+        <v>20</v>
+      </c>
+      <c r="G188" t="n">
+        <v>6.170666666666675</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F189" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6.167000000000008</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F190" t="n">
+        <v>388000</v>
+      </c>
+      <c r="G190" t="n">
+        <v>6.162833333333341</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D191" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10</v>
+      </c>
+      <c r="G191" t="n">
+        <v>6.160500000000009</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E192" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>12260.4668</v>
+      </c>
+      <c r="G192" t="n">
+        <v>6.157666666666675</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D193" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E193" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F193" t="n">
+        <v>10</v>
+      </c>
+      <c r="G193" t="n">
+        <v>6.157166666666674</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E194" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F194" t="n">
+        <v>69034.9837</v>
+      </c>
+      <c r="G194" t="n">
+        <v>6.156500000000007</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="D195" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E195" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F195" t="n">
+        <v>50</v>
+      </c>
+      <c r="G195" t="n">
+        <v>6.154166666666673</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C196" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2030</v>
+      </c>
+      <c r="G196" t="n">
+        <v>6.15483333333334</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C197" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E197" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F197" t="n">
+        <v>20</v>
+      </c>
+      <c r="G197" t="n">
+        <v>6.154333333333341</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D198" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F198" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="G198" t="n">
+        <v>6.153500000000007</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F199" t="n">
+        <v>207.2585</v>
+      </c>
+      <c r="G199" t="n">
+        <v>6.151333333333341</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D200" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10</v>
+      </c>
+      <c r="G200" t="n">
+        <v>6.150833333333341</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D201" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F201" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="G201" t="n">
+        <v>6.150333333333341</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F202" t="n">
+        <v>55.93</v>
+      </c>
+      <c r="G202" t="n">
+        <v>6.148500000000008</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E203" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10</v>
+      </c>
+      <c r="G203" t="n">
+        <v>6.148333333333341</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E204" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10077.5841</v>
+      </c>
+      <c r="G204" t="n">
+        <v>6.148166666666675</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="F205" t="n">
+        <v>815521.1297</v>
+      </c>
+      <c r="G205" t="n">
+        <v>6.148000000000009</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C206" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E206" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F206" t="n">
+        <v>10955</v>
+      </c>
+      <c r="G206" t="n">
+        <v>6.146333333333342</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C207" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E207" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F207" t="n">
+        <v>9879.4447</v>
+      </c>
+      <c r="G207" t="n">
+        <v>6.145666666666674</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F208" t="n">
+        <v>20907.83</v>
+      </c>
+      <c r="G208" t="n">
+        <v>6.141000000000007</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C209" t="n">
+        <v>6</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6</v>
+      </c>
+      <c r="E209" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F209" t="n">
+        <v>24562</v>
+      </c>
+      <c r="G209" t="n">
+        <v>6.138166666666674</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>6</v>
+      </c>
+      <c r="C210" t="n">
+        <v>6</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6</v>
+      </c>
+      <c r="E210" t="n">
+        <v>6</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10486</v>
+      </c>
+      <c r="G210" t="n">
+        <v>6.136166666666673</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="D211" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="E211" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F211" t="n">
+        <v>11</v>
+      </c>
+      <c r="G211" t="n">
+        <v>6.133000000000007</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>6</v>
+      </c>
+      <c r="K211" t="n">
+        <v>6</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4336</v>
+      </c>
+      <c r="G212" t="n">
+        <v>6.130000000000007</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="K212" t="n">
+        <v>6</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D181" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E181" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1839.6449</v>
-      </c>
-      <c r="G181" t="n">
-        <v>6.113999999999978</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C182" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D182" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E182" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F182" t="n">
-        <v>76.95820000000001</v>
-      </c>
-      <c r="G182" t="n">
-        <v>6.097999999999979</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C183" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D183" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E183" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F183" t="n">
-        <v>19990</v>
-      </c>
-      <c r="G183" t="n">
-        <v>6.081999999999979</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C184" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D184" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E184" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F184" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G184" t="n">
-        <v>6.051999999999979</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C185" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D185" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E185" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F185" t="n">
-        <v>10</v>
-      </c>
-      <c r="G185" t="n">
-        <v>6.067999999999978</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F186" t="n">
-        <v>280.6443</v>
-      </c>
-      <c r="G186" t="n">
-        <v>6.083999999999978</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C187" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D187" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E187" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F187" t="n">
-        <v>20</v>
-      </c>
-      <c r="G187" t="n">
-        <v>6.099999999999978</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C188" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D188" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E188" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F188" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G188" t="n">
-        <v>6.099999999999978</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C189" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D189" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E189" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F189" t="n">
-        <v>388000</v>
-      </c>
-      <c r="G189" t="n">
-        <v>6.099999999999978</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10</v>
-      </c>
-      <c r="G190" t="n">
-        <v>6.097999999999978</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C191" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D191" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E191" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F191" t="n">
-        <v>12260.4668</v>
-      </c>
-      <c r="G191" t="n">
-        <v>6.097999999999979</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K191" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C192" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D192" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E192" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10</v>
-      </c>
-      <c r="G192" t="n">
-        <v>6.099999999999978</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="D193" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="E193" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F193" t="n">
-        <v>69034.9837</v>
-      </c>
-      <c r="G193" t="n">
-        <v>6.117999999999977</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D194" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="E194" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="F194" t="n">
-        <v>50</v>
-      </c>
-      <c r="G194" t="n">
-        <v>6.137999999999978</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D195" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E195" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="F195" t="n">
-        <v>2030</v>
-      </c>
-      <c r="G195" t="n">
-        <v>6.155999999999978</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C196" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D196" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E196" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F196" t="n">
-        <v>20</v>
-      </c>
-      <c r="G196" t="n">
-        <v>6.173999999999979</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C197" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D197" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E197" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F197" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="G197" t="n">
-        <v>6.171999999999978</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C198" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D198" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E198" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F198" t="n">
-        <v>207.2585</v>
-      </c>
-      <c r="G198" t="n">
-        <v>6.169999999999979</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D199" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E199" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F199" t="n">
-        <v>10</v>
-      </c>
-      <c r="G199" t="n">
-        <v>6.183999999999979</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C200" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D200" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E200" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F200" t="n">
-        <v>49.95</v>
-      </c>
-      <c r="G200" t="n">
-        <v>6.183999999999979</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C201" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D201" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E201" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F201" t="n">
-        <v>55.93</v>
-      </c>
-      <c r="G201" t="n">
-        <v>6.16599999999998</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C202" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D202" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E202" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F202" t="n">
-        <v>10</v>
-      </c>
-      <c r="G202" t="n">
-        <v>6.18399999999998</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D203" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E203" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10077.5841</v>
-      </c>
-      <c r="G203" t="n">
-        <v>6.20199999999998</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="D204" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="E204" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F204" t="n">
-        <v>815521.1297</v>
-      </c>
-      <c r="G204" t="n">
-        <v>6.201999999999981</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C205" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D205" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E205" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F205" t="n">
-        <v>10955</v>
-      </c>
-      <c r="G205" t="n">
-        <v>6.183999999999982</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="C206" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="D206" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="E206" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="F206" t="n">
-        <v>9879.4447</v>
-      </c>
-      <c r="G206" t="n">
-        <v>6.183999999999982</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C207" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="D207" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E207" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F207" t="n">
-        <v>20907.83</v>
-      </c>
-      <c r="G207" t="n">
-        <v>6.117999999999983</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C208" t="n">
-        <v>6</v>
-      </c>
-      <c r="D208" t="n">
-        <v>6</v>
-      </c>
-      <c r="E208" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F208" t="n">
-        <v>24562</v>
-      </c>
-      <c r="G208" t="n">
-        <v>6.073999999999982</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>6</v>
-      </c>
-      <c r="D209" t="n">
-        <v>6</v>
-      </c>
-      <c r="E209" t="n">
-        <v>6</v>
-      </c>
-      <c r="F209" t="n">
-        <v>10486</v>
-      </c>
-      <c r="G209" t="n">
-        <v>6.029999999999982</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C210" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="D210" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="E210" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="F210" t="n">
-        <v>11</v>
-      </c>
-      <c r="G210" t="n">
-        <v>5.989999999999982</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="C211" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="D211" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="E211" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F211" t="n">
-        <v>4336</v>
-      </c>
-      <c r="G211" t="n">
-        <v>5.951999999999983</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="M212" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M212"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>862.9166</v>
       </c>
       <c r="G2" t="n">
+        <v>6.148000000000004</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.131666666666661</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1607</v>
       </c>
       <c r="G3" t="n">
+        <v>6.144000000000004</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.130999999999995</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,22 +529,25 @@
         <v>521.732</v>
       </c>
       <c r="G4" t="n">
+        <v>6.142000000000004</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.130833333333328</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.09</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>6.09</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -557,26 +571,29 @@
         <v>7836</v>
       </c>
       <c r="G5" t="n">
+        <v>6.140000000000003</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.130666666666661</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>6.12</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>6.09</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,24 +617,29 @@
         <v>7823.7908</v>
       </c>
       <c r="G6" t="n">
+        <v>6.139333333333337</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.130499999999995</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L6" t="n">
         <v>6.09</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -641,18 +663,29 @@
         <v>1010</v>
       </c>
       <c r="G7" t="n">
+        <v>6.138666666666669</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.130333333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -676,18 +709,29 @@
         <v>64486</v>
       </c>
       <c r="G8" t="n">
+        <v>6.136000000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.129666666666663</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,18 +755,29 @@
         <v>5088.7135</v>
       </c>
       <c r="G9" t="n">
+        <v>6.134666666666669</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.129499999999996</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,18 +801,29 @@
         <v>9907.1661</v>
       </c>
       <c r="G10" t="n">
+        <v>6.134000000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.130999999999996</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,18 +847,29 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>6.133333333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.130999999999996</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -816,18 +893,27 @@
         <v>1000</v>
       </c>
       <c r="G12" t="n">
+        <v>6.131333333333334</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.130666666666662</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -851,18 +937,29 @@
         <v>10.17</v>
       </c>
       <c r="G13" t="n">
+        <v>6.130666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.130166666666662</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -886,18 +983,29 @@
         <v>4329.6762</v>
       </c>
       <c r="G14" t="n">
+        <v>6.130666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.130499999999995</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -921,18 +1029,27 @@
         <v>90.32380000000001</v>
       </c>
       <c r="G15" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.130666666666661</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +1073,29 @@
         <v>2438.7249</v>
       </c>
       <c r="G16" t="n">
+        <v>6.129333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.130333333333327</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1119,29 @@
         <v>36200</v>
       </c>
       <c r="G17" t="n">
+        <v>6.131333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.130333333333327</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1165,29 @@
         <v>5300</v>
       </c>
       <c r="G18" t="n">
+        <v>6.135333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.131833333333327</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1211,29 @@
         <v>10590</v>
       </c>
       <c r="G19" t="n">
+        <v>6.137333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.132833333333327</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1257,29 @@
         <v>128</v>
       </c>
       <c r="G20" t="n">
+        <v>6.139333333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.132999999999994</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1303,29 @@
         <v>800</v>
       </c>
       <c r="G21" t="n">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.13316666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1349,29 @@
         <v>890</v>
       </c>
       <c r="G22" t="n">
+        <v>6.140666666666667</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.133333333333327</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1395,29 @@
         <v>10.4152</v>
       </c>
       <c r="G23" t="n">
+        <v>6.142666666666668</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.134833333333327</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1441,29 @@
         <v>1045.4975</v>
       </c>
       <c r="G24" t="n">
+        <v>6.143333333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.13516666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1487,29 @@
         <v>25589.4136</v>
       </c>
       <c r="G25" t="n">
+        <v>6.143333333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.135499999999992</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1533,29 @@
         <v>993.8536</v>
       </c>
       <c r="G26" t="n">
+        <v>6.142000000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.135499999999992</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1579,29 @@
         <v>24864.5864</v>
       </c>
       <c r="G27" t="n">
+        <v>6.141333333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.135333333333326</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L27" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1625,29 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
+        <v>6.141333333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.135666666666659</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1671,29 @@
         <v>1741.2706</v>
       </c>
       <c r="G29" t="n">
+        <v>6.140666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.135999999999992</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L29" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1717,29 @@
         <v>6480</v>
       </c>
       <c r="G30" t="n">
+        <v>6.140666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.136166666666658</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1763,29 @@
         <v>8910</v>
       </c>
       <c r="G31" t="n">
+        <v>6.140666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.136166666666658</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1809,29 @@
         <v>1420</v>
       </c>
       <c r="G32" t="n">
+        <v>6.140666666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.136166666666658</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1855,29 @@
         <v>28639.9183</v>
       </c>
       <c r="G33" t="n">
+        <v>6.138000000000001</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.136833333333326</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1901,29 @@
         <v>11.26</v>
       </c>
       <c r="G34" t="n">
+        <v>6.137333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.136666666666659</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L34" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1947,29 @@
         <v>29816.5763</v>
       </c>
       <c r="G35" t="n">
+        <v>6.136666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.137833333333325</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L35" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1993,29 @@
         <v>519.2542999999999</v>
       </c>
       <c r="G36" t="n">
+        <v>6.135999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.138999999999992</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +2039,29 @@
         <v>17485.3939</v>
       </c>
       <c r="G37" t="n">
+        <v>6.133333333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.139666666666659</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="L37" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +2085,29 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
+        <v>6.132</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +2131,29 @@
         <v>84787.27822357723</v>
       </c>
       <c r="G39" t="n">
+        <v>6.132666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L39" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2177,29 @@
         <v>70</v>
       </c>
       <c r="G40" t="n">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2223,29 @@
         <v>61179.1869</v>
       </c>
       <c r="G41" t="n">
+        <v>6.135333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2269,29 @@
         <v>162601.626</v>
       </c>
       <c r="G42" t="n">
+        <v>6.138000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L42" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2315,29 @@
         <v>215.0076</v>
       </c>
       <c r="G43" t="n">
+        <v>6.138666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2361,29 @@
         <v>61996.6601</v>
       </c>
       <c r="G44" t="n">
+        <v>6.139333333333335</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.139166666666659</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L44" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2407,29 @@
         <v>20891.426</v>
       </c>
       <c r="G45" t="n">
+        <v>6.140000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.139666666666659</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L45" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2453,29 @@
         <v>3111.9139</v>
       </c>
       <c r="G46" t="n">
+        <v>6.140666666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L46" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2499,29 @@
         <v>61062.6634</v>
       </c>
       <c r="G47" t="n">
+        <v>6.140666666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2545,29 @@
         <v>8397.336600000001</v>
       </c>
       <c r="G48" t="n">
+        <v>6.143333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L48" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2591,29 @@
         <v>540</v>
       </c>
       <c r="G49" t="n">
+        <v>6.144000000000003</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2637,29 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
+        <v>6.144666666666669</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2683,29 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
+        <v>6.145333333333337</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L51" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2729,29 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
+        <v>6.148000000000004</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2775,29 @@
         <v>13489.2592</v>
       </c>
       <c r="G53" t="n">
+        <v>6.150000000000004</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2821,29 @@
         <v>25310.7408</v>
       </c>
       <c r="G54" t="n">
+        <v>6.150000000000004</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.140166666666659</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L54" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2867,29 @@
         <v>1426.9696</v>
       </c>
       <c r="G55" t="n">
+        <v>6.151333333333337</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.140499999999992</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L55" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2913,29 @@
         <v>9010</v>
       </c>
       <c r="G56" t="n">
+        <v>6.15266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.140833333333327</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L56" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2959,29 @@
         <v>10000</v>
       </c>
       <c r="G57" t="n">
+        <v>6.154000000000003</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.141166666666661</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +3005,29 @@
         <v>88.8888</v>
       </c>
       <c r="G58" t="n">
+        <v>6.155333333333336</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.141499999999994</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L58" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +3051,29 @@
         <v>8921.111199999999</v>
       </c>
       <c r="G59" t="n">
+        <v>6.156666666666669</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.141833333333328</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +3097,29 @@
         <v>10000</v>
       </c>
       <c r="G60" t="n">
+        <v>6.158000000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.142166666666663</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L60" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +3143,29 @@
         <v>60000</v>
       </c>
       <c r="G61" t="n">
+        <v>6.160000000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.142666666666663</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +3189,29 @@
         <v>57.6213</v>
       </c>
       <c r="G62" t="n">
+        <v>6.162000000000003</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.143666666666663</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L62" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +3235,29 @@
         <v>4106.2483</v>
       </c>
       <c r="G63" t="n">
+        <v>6.164000000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.145166666666664</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L63" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3281,29 @@
         <v>100</v>
       </c>
       <c r="G64" t="n">
+        <v>6.166000000000002</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.146166666666663</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3327,29 @@
         <v>7425.7835</v>
       </c>
       <c r="G65" t="n">
+        <v>6.168666666666669</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.14733333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L65" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3373,29 @@
         <v>112.3695</v>
       </c>
       <c r="G66" t="n">
+        <v>6.171333333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.148166666666664</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L66" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3419,29 @@
         <v>300</v>
       </c>
       <c r="G67" t="n">
+        <v>6.174000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.148999999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L67" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3465,29 @@
         <v>120020</v>
       </c>
       <c r="G68" t="n">
+        <v>6.176666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.150333333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L68" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3511,29 @@
         <v>139095.2985</v>
       </c>
       <c r="G69" t="n">
+        <v>6.180000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.151499999999997</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3557,29 @@
         <v>97486.5241</v>
       </c>
       <c r="G70" t="n">
+        <v>6.182</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.152499999999997</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3603,29 @@
         <v>128875.2041</v>
       </c>
       <c r="G71" t="n">
+        <v>6.184</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.153499999999997</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3649,29 @@
         <v>1141.9678</v>
       </c>
       <c r="G72" t="n">
+        <v>6.188666666666666</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.155499999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3695,29 @@
         <v>30</v>
       </c>
       <c r="G73" t="n">
+        <v>6.193333333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.157166666666664</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3741,27 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
+        <v>6.197999999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.158666666666664</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3785,27 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
+        <v>6.202666666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.160333333333331</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3829,27 @@
         <v>6542.7128</v>
       </c>
       <c r="G76" t="n">
+        <v>6.206666666666664</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.161999999999998</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3873,27 @@
         <v>65027.0507</v>
       </c>
       <c r="G77" t="n">
+        <v>6.214666666666664</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.164499999999999</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3917,27 @@
         <v>133.9285</v>
       </c>
       <c r="G78" t="n">
+        <v>6.221333333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.166666666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3961,27 @@
         <v>50843.0222</v>
       </c>
       <c r="G79" t="n">
+        <v>6.229333333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.169166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +4005,27 @@
         <v>54.3015</v>
       </c>
       <c r="G80" t="n">
+        <v>6.241333333333332</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.172833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +4049,27 @@
         <v>222</v>
       </c>
       <c r="G81" t="n">
+        <v>6.253333333333332</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.176500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +4093,27 @@
         <v>12611.0298</v>
       </c>
       <c r="G82" t="n">
+        <v>6.265333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.180166666666667</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +4137,27 @@
         <v>78313.4898</v>
       </c>
       <c r="G83" t="n">
+        <v>6.278666666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.184333333333334</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +4181,27 @@
         <v>26765.2206</v>
       </c>
       <c r="G84" t="n">
+        <v>6.290666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.188333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +4225,27 @@
         <v>4508.9769</v>
       </c>
       <c r="G85" t="n">
+        <v>6.294666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.190333333333334</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +4269,27 @@
         <v>134.7257</v>
       </c>
       <c r="G86" t="n">
+        <v>6.306666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.194666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +4313,27 @@
         <v>4608.9769</v>
       </c>
       <c r="G87" t="n">
+        <v>6.315333333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.199000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +4357,27 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
+        <v>6.324666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.203000000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4401,27 @@
         <v>16776.4982</v>
       </c>
       <c r="G89" t="n">
+        <v>6.332666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.206666666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4445,27 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
+        <v>6.341333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.210500000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4489,27 @@
         <v>30194.631</v>
       </c>
       <c r="G91" t="n">
+        <v>6.350000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.214333333333335</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4533,27 @@
         <v>62794.3485</v>
       </c>
       <c r="G92" t="n">
+        <v>6.354666666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.218000000000003</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4577,27 @@
         <v>20</v>
       </c>
       <c r="G93" t="n">
+        <v>6.361333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.222500000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,19 +4621,28 @@
         <v>30</v>
       </c>
       <c r="G94" t="n">
+        <v>6.366666666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.226500000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
+      <c r="L94" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>1.042619047619048</v>
       </c>
     </row>
     <row r="95">
@@ -3721,18 +4665,21 @@
         <v>1201.4084</v>
       </c>
       <c r="G95" t="n">
+        <v>6.368</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.230666666666669</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4703,21 @@
         <v>1396.8243</v>
       </c>
       <c r="G96" t="n">
+        <v>6.368</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.234500000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4741,21 @@
         <v>34633.6854</v>
       </c>
       <c r="G97" t="n">
+        <v>6.369333333333334</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.239166666666669</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4779,21 @@
         <v>3210</v>
       </c>
       <c r="G98" t="n">
+        <v>6.368666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.243500000000002</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4817,21 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>6.369333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.247500000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4855,21 @@
         <v>7000</v>
       </c>
       <c r="G100" t="n">
+        <v>6.377333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.251333333333336</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4893,21 @@
         <v>31543.0906</v>
       </c>
       <c r="G101" t="n">
+        <v>6.378</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.255333333333336</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4931,21 @@
         <v>21.375</v>
       </c>
       <c r="G102" t="n">
+        <v>6.378666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.25916666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4969,21 @@
         <v>18.701</v>
       </c>
       <c r="G103" t="n">
+        <v>6.379333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.263166666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +5007,21 @@
         <v>100144.6092</v>
       </c>
       <c r="G104" t="n">
+        <v>6.380666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.267000000000004</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +5045,21 @@
         <v>14.0453</v>
       </c>
       <c r="G105" t="n">
+        <v>6.382</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.271000000000003</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +5083,21 @@
         <v>10058.2231</v>
       </c>
       <c r="G106" t="n">
+        <v>6.382666666666665</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.274833333333337</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +5121,21 @@
         <v>20.9702</v>
       </c>
       <c r="G107" t="n">
+        <v>6.383999999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.278833333333337</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +5159,21 @@
         <v>39785</v>
       </c>
       <c r="G108" t="n">
+        <v>6.383999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.282666666666671</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +5197,21 @@
         <v>37910</v>
       </c>
       <c r="G109" t="n">
+        <v>6.383999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.286500000000005</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +5235,21 @@
         <v>53901</v>
       </c>
       <c r="G110" t="n">
+        <v>6.383333333333331</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.290333333333338</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +5273,21 @@
         <v>26601</v>
       </c>
       <c r="G111" t="n">
+        <v>6.383999999999998</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.294166666666672</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +5311,21 @@
         <v>11625.3142</v>
       </c>
       <c r="G112" t="n">
+        <v>6.38333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.298000000000005</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5349,21 @@
         <v>171.7917</v>
       </c>
       <c r="G113" t="n">
+        <v>6.383999999999998</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.302000000000006</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5387,21 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
+        <v>6.383999999999998</v>
+      </c>
+      <c r="H114" t="n">
         <v>6.306000000000006</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5425,21 @@
         <v>102950.9171</v>
       </c>
       <c r="G115" t="n">
+        <v>6.382666666666664</v>
+      </c>
+      <c r="H115" t="n">
         <v>6.309166666666672</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5463,21 @@
         <v>100</v>
       </c>
       <c r="G116" t="n">
+        <v>6.382666666666664</v>
+      </c>
+      <c r="H116" t="n">
         <v>6.312833333333339</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5501,21 @@
         <v>67767.3077</v>
       </c>
       <c r="G117" t="n">
+        <v>6.381999999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>6.316166666666672</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5539,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
+        <v>6.381333333333331</v>
+      </c>
+      <c r="H118" t="n">
         <v>6.319666666666672</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5577,21 @@
         <v>14466</v>
       </c>
       <c r="G119" t="n">
+        <v>6.379999999999998</v>
+      </c>
+      <c r="H119" t="n">
         <v>6.322833333333338</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5615,21 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
+        <v>6.379333333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>6.326333333333338</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5653,21 @@
         <v>280079.467</v>
       </c>
       <c r="G121" t="n">
+        <v>6.379333333333332</v>
+      </c>
+      <c r="H121" t="n">
         <v>6.329666666666671</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5691,21 @@
         <v>5169.6486</v>
       </c>
       <c r="G122" t="n">
+        <v>6.377333333333331</v>
+      </c>
+      <c r="H122" t="n">
         <v>6.332666666666671</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5729,21 @@
         <v>100</v>
       </c>
       <c r="G123" t="n">
+        <v>6.377333333333331</v>
+      </c>
+      <c r="H123" t="n">
         <v>6.336000000000004</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5767,21 @@
         <v>36273.3514</v>
       </c>
       <c r="G124" t="n">
+        <v>6.375999999999999</v>
+      </c>
+      <c r="H124" t="n">
         <v>6.339000000000004</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5805,21 @@
         <v>96774.5275</v>
       </c>
       <c r="G125" t="n">
+        <v>6.373999999999998</v>
+      </c>
+      <c r="H125" t="n">
         <v>6.341666666666671</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5843,21 @@
         <v>43034</v>
       </c>
       <c r="G126" t="n">
+        <v>6.368666666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>6.343500000000005</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5881,21 @@
         <v>88.8888</v>
       </c>
       <c r="G127" t="n">
+        <v>6.363333333333332</v>
+      </c>
+      <c r="H127" t="n">
         <v>6.345333333333339</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5919,21 @@
         <v>4897.51</v>
       </c>
       <c r="G128" t="n">
+        <v>6.357333333333331</v>
+      </c>
+      <c r="H128" t="n">
         <v>6.347166666666672</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5957,21 @@
         <v>16776.4983</v>
       </c>
       <c r="G129" t="n">
+        <v>6.349333333333331</v>
+      </c>
+      <c r="H129" t="n">
         <v>6.348333333333339</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5995,21 @@
         <v>20</v>
       </c>
       <c r="G130" t="n">
+        <v>6.345333333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>6.350000000000006</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +6033,21 @@
         <v>4287.5549</v>
       </c>
       <c r="G131" t="n">
+        <v>6.337333333333331</v>
+      </c>
+      <c r="H131" t="n">
         <v>6.351166666666672</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +6071,21 @@
         <v>3935.9468</v>
       </c>
       <c r="G132" t="n">
+        <v>6.332666666666664</v>
+      </c>
+      <c r="H132" t="n">
         <v>6.352166666666673</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +6109,21 @@
         <v>41026.4648</v>
       </c>
       <c r="G133" t="n">
+        <v>6.318666666666664</v>
+      </c>
+      <c r="H133" t="n">
         <v>6.351000000000005</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +6147,21 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
+        <v>6.306666666666663</v>
+      </c>
+      <c r="H134" t="n">
         <v>6.350000000000006</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +6185,21 @@
         <v>720.0807</v>
       </c>
       <c r="G135" t="n">
+        <v>6.300666666666664</v>
+      </c>
+      <c r="H135" t="n">
         <v>6.350833333333339</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +6223,21 @@
         <v>444</v>
       </c>
       <c r="G136" t="n">
+        <v>6.287333333333332</v>
+      </c>
+      <c r="H136" t="n">
         <v>6.349833333333339</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +6261,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
+        <v>6.279999999999998</v>
+      </c>
+      <c r="H137" t="n">
         <v>6.349000000000006</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +6299,21 @@
         <v>1821.4238</v>
       </c>
       <c r="G138" t="n">
+        <v>6.266666666666665</v>
+      </c>
+      <c r="H138" t="n">
         <v>6.347333333333339</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +6337,21 @@
         <v>110.4838</v>
       </c>
       <c r="G139" t="n">
+        <v>6.259999999999999</v>
+      </c>
+      <c r="H139" t="n">
         <v>6.346666666666673</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +6375,21 @@
         <v>16291.7304</v>
       </c>
       <c r="G140" t="n">
+        <v>6.253333333333332</v>
+      </c>
+      <c r="H140" t="n">
         <v>6.344666666666672</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +6413,21 @@
         <v>1209.3482</v>
       </c>
       <c r="G141" t="n">
+        <v>6.249999999999999</v>
+      </c>
+      <c r="H141" t="n">
         <v>6.342666666666672</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +6451,21 @@
         <v>34165.0003</v>
       </c>
       <c r="G142" t="n">
+        <v>6.245999999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>6.340500000000006</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6489,21 @@
         <v>10002</v>
       </c>
       <c r="G143" t="n">
+        <v>6.241333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>6.337833333333339</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6527,21 @@
         <v>938.543</v>
       </c>
       <c r="G144" t="n">
+        <v>6.238666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>6.33533333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6565,21 @@
         <v>350555.7038</v>
       </c>
       <c r="G145" t="n">
+        <v>6.234</v>
+      </c>
+      <c r="H145" t="n">
         <v>6.33483333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6603,21 @@
         <v>3333</v>
       </c>
       <c r="G146" t="n">
+        <v>6.231333333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>6.332333333333341</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6641,21 @@
         <v>4385.3691</v>
       </c>
       <c r="G147" t="n">
+        <v>6.222666666666668</v>
+      </c>
+      <c r="H147" t="n">
         <v>6.329000000000008</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6679,21 @@
         <v>3175.0357</v>
       </c>
       <c r="G148" t="n">
+        <v>6.222666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>6.325500000000008</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6717,21 @@
         <v>51754.0178</v>
       </c>
       <c r="G149" t="n">
+        <v>6.222</v>
+      </c>
+      <c r="H149" t="n">
         <v>6.322333333333342</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6755,21 @@
         <v>999886.6931</v>
       </c>
       <c r="G150" t="n">
+        <v>6.210666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>6.318166666666674</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6793,21 @@
         <v>164708.7042</v>
       </c>
       <c r="G151" t="n">
+        <v>6.206666666666668</v>
+      </c>
+      <c r="H151" t="n">
         <v>6.314000000000008</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6831,21 @@
         <v>195335.57</v>
       </c>
       <c r="G152" t="n">
+        <v>6.198000000000002</v>
+      </c>
+      <c r="H152" t="n">
         <v>6.309833333333342</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6869,21 @@
         <v>3333</v>
       </c>
       <c r="G153" t="n">
+        <v>6.194000000000002</v>
+      </c>
+      <c r="H153" t="n">
         <v>6.305500000000008</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6907,21 @@
         <v>9890.732400000001</v>
       </c>
       <c r="G154" t="n">
+        <v>6.184666666666669</v>
+      </c>
+      <c r="H154" t="n">
         <v>6.301166666666675</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6945,21 @@
         <v>1480</v>
       </c>
       <c r="G155" t="n">
+        <v>6.176666666666668</v>
+      </c>
+      <c r="H155" t="n">
         <v>6.296833333333342</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6983,21 @@
         <v>39008.9122</v>
       </c>
       <c r="G156" t="n">
+        <v>6.168666666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>6.292833333333342</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +7021,21 @@
         <v>263.6852</v>
       </c>
       <c r="G157" t="n">
+        <v>6.162000000000002</v>
+      </c>
+      <c r="H157" t="n">
         <v>6.288666666666675</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +7059,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
+        <v>6.160666666666668</v>
+      </c>
+      <c r="H158" t="n">
         <v>6.285833333333342</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +7097,21 @@
         <v>203470.6698</v>
       </c>
       <c r="G159" t="n">
+        <v>6.154</v>
+      </c>
+      <c r="H159" t="n">
         <v>6.281500000000008</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +7135,21 @@
         <v>10</v>
       </c>
       <c r="G160" t="n">
+        <v>6.152666666666666</v>
+      </c>
+      <c r="H160" t="n">
         <v>6.278666666666675</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +7173,21 @@
         <v>27801.0015</v>
       </c>
       <c r="G161" t="n">
+        <v>6.151333333333332</v>
+      </c>
+      <c r="H161" t="n">
         <v>6.275666666666675</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +7211,21 @@
         <v>9364.7392</v>
       </c>
       <c r="G162" t="n">
+        <v>6.153999999999998</v>
+      </c>
+      <c r="H162" t="n">
         <v>6.272833333333341</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +7249,21 @@
         <v>50000</v>
       </c>
       <c r="G163" t="n">
+        <v>6.151999999999998</v>
+      </c>
+      <c r="H163" t="n">
         <v>6.268666666666674</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +7287,21 @@
         <v>13769.5912</v>
       </c>
       <c r="G164" t="n">
+        <v>6.153333333333332</v>
+      </c>
+      <c r="H164" t="n">
         <v>6.265500000000007</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +7325,21 @@
         <v>100</v>
       </c>
       <c r="G165" t="n">
+        <v>6.158666666666664</v>
+      </c>
+      <c r="H165" t="n">
         <v>6.262333333333341</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +7363,21 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
+        <v>6.165333333333331</v>
+      </c>
+      <c r="H166" t="n">
         <v>6.259666666666675</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +7401,21 @@
         <v>49.925</v>
       </c>
       <c r="G167" t="n">
+        <v>6.167999999999997</v>
+      </c>
+      <c r="H167" t="n">
         <v>6.255833333333342</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +7439,21 @@
         <v>14000</v>
       </c>
       <c r="G168" t="n">
+        <v>6.170666666666663</v>
+      </c>
+      <c r="H168" t="n">
         <v>6.252166666666676</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7477,21 @@
         <v>489.8176</v>
       </c>
       <c r="G169" t="n">
+        <v>6.173333333333329</v>
+      </c>
+      <c r="H169" t="n">
         <v>6.24850000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7515,21 @@
         <v>78000</v>
       </c>
       <c r="G170" t="n">
+        <v>6.174666666666663</v>
+      </c>
+      <c r="H170" t="n">
         <v>6.244666666666676</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7553,21 @@
         <v>40535.2608</v>
       </c>
       <c r="G171" t="n">
+        <v>6.17533333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>6.240666666666676</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7591,21 @@
         <v>263021.2197</v>
       </c>
       <c r="G172" t="n">
+        <v>6.17533333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>6.236666666666676</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7629,21 @@
         <v>100000</v>
       </c>
       <c r="G173" t="n">
+        <v>6.169999999999997</v>
+      </c>
+      <c r="H173" t="n">
         <v>6.232333333333343</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7667,21 @@
         <v>50000</v>
       </c>
       <c r="G174" t="n">
+        <v>6.169999999999997</v>
+      </c>
+      <c r="H174" t="n">
         <v>6.22800000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7705,21 @@
         <v>10601.4204</v>
       </c>
       <c r="G175" t="n">
+        <v>6.164666666666664</v>
+      </c>
+      <c r="H175" t="n">
         <v>6.224166666666676</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7743,21 @@
         <v>2000</v>
       </c>
       <c r="G176" t="n">
+        <v>6.160666666666665</v>
+      </c>
+      <c r="H176" t="n">
         <v>6.220166666666676</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7781,21 @@
         <v>36849.8199</v>
       </c>
       <c r="G177" t="n">
+        <v>6.155333333333331</v>
+      </c>
+      <c r="H177" t="n">
         <v>6.216166666666676</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7819,21 @@
         <v>12283.2733</v>
       </c>
       <c r="G178" t="n">
+        <v>6.154666666666665</v>
+      </c>
+      <c r="H178" t="n">
         <v>6.212000000000009</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7857,21 @@
         <v>65548.9347</v>
       </c>
       <c r="G179" t="n">
+        <v>6.150666666666664</v>
+      </c>
+      <c r="H179" t="n">
         <v>6.208166666666675</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7895,21 @@
         <v>10</v>
       </c>
       <c r="G180" t="n">
+        <v>6.150666666666664</v>
+      </c>
+      <c r="H180" t="n">
         <v>6.205166666666675</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7933,21 @@
         <v>417304.6185</v>
       </c>
       <c r="G181" t="n">
+        <v>6.139999999999998</v>
+      </c>
+      <c r="H181" t="n">
         <v>6.199833333333342</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7971,21 @@
         <v>1839.6449</v>
       </c>
       <c r="G182" t="n">
+        <v>6.132666666666664</v>
+      </c>
+      <c r="H182" t="n">
         <v>6.194666666666675</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +8009,21 @@
         <v>76.95820000000001</v>
       </c>
       <c r="G183" t="n">
+        <v>6.125333333333331</v>
+      </c>
+      <c r="H183" t="n">
         <v>6.189166666666676</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +8047,21 @@
         <v>19990</v>
       </c>
       <c r="G184" t="n">
+        <v>6.117999999999998</v>
+      </c>
+      <c r="H184" t="n">
         <v>6.184000000000009</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +8085,21 @@
         <v>49.95</v>
       </c>
       <c r="G185" t="n">
+        <v>6.111333333333331</v>
+      </c>
+      <c r="H185" t="n">
         <v>6.179000000000008</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +8123,21 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
+        <v>6.111333333333331</v>
+      </c>
+      <c r="H186" t="n">
         <v>6.176333333333342</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +8161,21 @@
         <v>280.6443</v>
       </c>
       <c r="G187" t="n">
+        <v>6.110666666666663</v>
+      </c>
+      <c r="H187" t="n">
         <v>6.173500000000008</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +8199,21 @@
         <v>20</v>
       </c>
       <c r="G188" t="n">
+        <v>6.110666666666663</v>
+      </c>
+      <c r="H188" t="n">
         <v>6.170666666666675</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +8237,21 @@
         <v>19.95</v>
       </c>
       <c r="G189" t="n">
+        <v>6.105333333333331</v>
+      </c>
+      <c r="H189" t="n">
         <v>6.167000000000008</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +8275,21 @@
         <v>388000</v>
       </c>
       <c r="G190" t="n">
+        <v>6.099999999999997</v>
+      </c>
+      <c r="H190" t="n">
         <v>6.162833333333341</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +8313,21 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
+        <v>6.098666666666663</v>
+      </c>
+      <c r="H191" t="n">
         <v>6.160500000000009</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +8351,21 @@
         <v>12260.4668</v>
       </c>
       <c r="G192" t="n">
+        <v>6.098666666666663</v>
+      </c>
+      <c r="H192" t="n">
         <v>6.157666666666675</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +8389,21 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
+        <v>6.09933333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>6.157166666666674</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +8427,21 @@
         <v>69034.9837</v>
       </c>
       <c r="G194" t="n">
+        <v>6.099999999999997</v>
+      </c>
+      <c r="H194" t="n">
         <v>6.156500000000007</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +8465,21 @@
         <v>50</v>
       </c>
       <c r="G195" t="n">
+        <v>6.096666666666664</v>
+      </c>
+      <c r="H195" t="n">
         <v>6.154166666666673</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +8503,21 @@
         <v>2030</v>
       </c>
       <c r="G196" t="n">
+        <v>6.10733333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>6.15483333333334</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8541,21 @@
         <v>20</v>
       </c>
       <c r="G197" t="n">
+        <v>6.118666666666664</v>
+      </c>
+      <c r="H197" t="n">
         <v>6.154333333333341</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8579,21 @@
         <v>19.95</v>
       </c>
       <c r="G198" t="n">
+        <v>6.123999999999997</v>
+      </c>
+      <c r="H198" t="n">
         <v>6.153500000000007</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8617,21 @@
         <v>207.2585</v>
       </c>
       <c r="G199" t="n">
+        <v>6.129333333333331</v>
+      </c>
+      <c r="H199" t="n">
         <v>6.151333333333341</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8655,21 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
+        <v>6.140666666666664</v>
+      </c>
+      <c r="H200" t="n">
         <v>6.150833333333341</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8693,21 @@
         <v>49.95</v>
       </c>
       <c r="G201" t="n">
+        <v>6.145999999999997</v>
+      </c>
+      <c r="H201" t="n">
         <v>6.150333333333341</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8731,21 @@
         <v>55.93</v>
       </c>
       <c r="G202" t="n">
+        <v>6.145999999999997</v>
+      </c>
+      <c r="H202" t="n">
         <v>6.148500000000008</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8769,21 @@
         <v>10</v>
       </c>
       <c r="G203" t="n">
+        <v>6.151999999999997</v>
+      </c>
+      <c r="H203" t="n">
         <v>6.148333333333341</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8807,21 @@
         <v>10077.5841</v>
       </c>
       <c r="G204" t="n">
+        <v>6.16333333333333</v>
+      </c>
+      <c r="H204" t="n">
         <v>6.148166666666675</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8845,21 @@
         <v>815521.1297</v>
       </c>
       <c r="G205" t="n">
+        <v>6.174666666666664</v>
+      </c>
+      <c r="H205" t="n">
         <v>6.148000000000009</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8883,21 @@
         <v>10955</v>
       </c>
       <c r="G206" t="n">
+        <v>6.174666666666664</v>
+      </c>
+      <c r="H206" t="n">
         <v>6.146333333333342</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8921,21 @@
         <v>9879.4447</v>
       </c>
       <c r="G207" t="n">
+        <v>6.174666666666664</v>
+      </c>
+      <c r="H207" t="n">
         <v>6.145666666666674</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8959,21 @@
         <v>20907.83</v>
       </c>
       <c r="G208" t="n">
+        <v>6.157999999999998</v>
+      </c>
+      <c r="H208" t="n">
         <v>6.141000000000007</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8997,21 @@
         <v>24562</v>
       </c>
       <c r="G209" t="n">
+        <v>6.148666666666665</v>
+      </c>
+      <c r="H209" t="n">
         <v>6.138166666666674</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +9035,21 @@
         <v>10486</v>
       </c>
       <c r="G210" t="n">
+        <v>6.138666666666664</v>
+      </c>
+      <c r="H210" t="n">
         <v>6.136166666666673</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,22 +9073,21 @@
         <v>11</v>
       </c>
       <c r="G211" t="n">
+        <v>6.119333333333331</v>
+      </c>
+      <c r="H211" t="n">
         <v>6.133000000000007</v>
       </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>6</v>
-      </c>
-      <c r="K211" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7820,26 +9111,421 @@
         <v>4336</v>
       </c>
       <c r="G212" t="n">
+        <v>6.100666666666664</v>
+      </c>
+      <c r="H212" t="n">
         <v>6.130000000000007</v>
       </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
         <v>5.93</v>
       </c>
-      <c r="K212" t="n">
-        <v>6</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F213" t="n">
+        <v>104757</v>
+      </c>
+      <c r="G213" t="n">
+        <v>6.087999999999997</v>
+      </c>
+      <c r="H213" t="n">
+        <v>6.127000000000007</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L213" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="C214" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="F214" t="n">
+        <v>10</v>
+      </c>
+      <c r="G214" t="n">
+        <v>6.091999999999998</v>
+      </c>
+      <c r="H214" t="n">
+        <v>6.128166666666673</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="L214" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10</v>
+      </c>
+      <c r="G215" t="n">
+        <v>6.073999999999998</v>
+      </c>
+      <c r="H215" t="n">
+        <v>6.125166666666673</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F216" t="n">
+        <v>54133.8553</v>
+      </c>
+      <c r="G216" t="n">
+        <v>6.055999999999998</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6.122166666666673</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="C217" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="D217" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="E217" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="F217" t="n">
+        <v>29.2245</v>
+      </c>
+      <c r="G217" t="n">
+        <v>6.059999999999999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>6.123000000000006</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="D218" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="F218" t="n">
+        <v>91140.2831</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6.042666666666665</v>
+      </c>
+      <c r="H218" t="n">
+        <v>6.11883333333334</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D219" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E219" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" t="n">
+        <v>6.036666666666664</v>
+      </c>
+      <c r="H219" t="n">
+        <v>6.11883333333334</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C220" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D220" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E220" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F220" t="n">
+        <v>426</v>
+      </c>
+      <c r="G220" t="n">
+        <v>6.024666666666665</v>
+      </c>
+      <c r="H220" t="n">
+        <v>6.116000000000008</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C221" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E221" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F221" t="n">
+        <v>169700.7328</v>
+      </c>
+      <c r="G221" t="n">
+        <v>6.018666666666665</v>
+      </c>
+      <c r="H221" t="n">
+        <v>6.113166666666674</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="C222" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="D222" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="F222" t="n">
+        <v>10</v>
+      </c>
+      <c r="G222" t="n">
+        <v>6.019333333333333</v>
+      </c>
+      <c r="H222" t="n">
+        <v>6.112000000000008</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N280"/>
+  <dimension ref="A1:M280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.13</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,19 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.15</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +640,23 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +681,23 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +722,23 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>6.05</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +763,23 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +804,23 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +845,23 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J12" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +886,23 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +927,23 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +968,23 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>6.16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +1009,23 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +1050,23 @@
         <v>737864.7589036481</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>6.06</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +1091,23 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>6.09</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1132,23 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1173,23 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1214,23 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1255,23 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>6.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1296,23 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1339,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1378,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1417,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1456,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1495,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1532,23 @@
         <v>853160.4074036481</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1573,23 @@
         <v>853180.4074036481</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1614,23 @@
         <v>844622.7807036481</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1655,23 @@
         <v>844632.7807036481</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>6.07</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1698,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1737,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1776,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1815,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1854,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1893,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1932,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1971,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +2010,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +2049,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +2088,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +2127,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2166,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2205,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2244,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2283,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2322,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2361,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2400,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2439,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2478,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2517,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2556,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2595,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2634,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2673,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2712,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2751,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2788,23 @@
         <v>791954.2329036482</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2829,23 @@
         <v>792475.9649036481</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>6.09</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2870,23 @@
         <v>792475.9649036481</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J63" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2911,23 @@
         <v>800299.7557036481</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2954,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2991,23 @@
         <v>735813.7557036481</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +3032,23 @@
         <v>740902.469203648</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>6.11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +3073,23 @@
         <v>750809.6353036481</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>6.13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +3114,23 @@
         <v>750809.6353036481</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J69" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +3155,23 @@
         <v>749809.6353036481</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +3196,23 @@
         <v>749819.8053036481</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +3237,23 @@
         <v>754149.4815036481</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J72" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +3280,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +3317,23 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J74" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +3358,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J75" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +3399,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3440,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3481,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3522,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3563,23 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3604,23 @@
         <v>790248.742503648</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3647,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3684,23 @@
         <v>790248.742503648</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3725,23 @@
         <v>789254.888903648</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3444,18 +3766,23 @@
         <v>764390.302503648</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3807,23 @@
         <v>764400.302503648</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+        <v>6.11</v>
+      </c>
+      <c r="J86" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3848,23 @@
         <v>764400.302503648</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3552,18 +3889,23 @@
         <v>764400.302503648</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3930,23 @@
         <v>764400.302503648</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3971,23 @@
         <v>765820.302503648</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J90" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +4014,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +4051,23 @@
         <v>737191.644203648</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>6.11</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +4092,23 @@
         <v>737191.644203648</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +4133,23 @@
         <v>737191.644203648</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +4174,23 @@
         <v>719706.2503036479</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>6.14</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +4215,23 @@
         <v>719716.2503036479</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>6.11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +4256,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +4297,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J98" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +4338,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J99" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +4379,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +4422,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4461,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4500,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4539,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +4576,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4619,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4656,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4697,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4308,18 +4738,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4781,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4818,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4859,23 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4900,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>6.15</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4941,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,18 +4982,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +5023,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +5064,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +5105,23 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +5146,23 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="J119" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +5187,23 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J120" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4740,18 +5228,23 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J121" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +5271,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +5308,23 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +5349,23 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>6.19</v>
+      </c>
+      <c r="J124" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +5392,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +5431,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +5470,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +5509,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5548,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5587,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5626,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5665,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5704,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5743,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5782,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +5819,21 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.016138211382114</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,18 +5858,15 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5352,18 +5891,15 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5388,18 +5924,15 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5424,18 +5957,15 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5460,18 +5990,15 @@
         <v>1207697.483627225</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +6023,15 @@
         <v>1180932.263027225</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5532,18 +6056,15 @@
         <v>1176423.286127225</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +6089,15 @@
         <v>1176558.011827225</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +6122,15 @@
         <v>1171949.034927225</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5640,18 +6155,15 @@
         <v>1171959.034927225</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5676,18 +6188,15 @@
         <v>1155182.536727225</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5712,18 +6221,15 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5748,18 +6254,15 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,18 +6287,15 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5820,18 +6320,15 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5856,18 +6353,15 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +6388,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +6419,15 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +6454,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +6487,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +6518,15 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,18 +6551,15 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6108,18 +6584,15 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6144,18 +6617,15 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +6652,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +6685,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +6718,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +6751,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +6784,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +6817,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +6850,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +6883,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6916,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +6949,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6540,18 +6980,15 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +7015,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +7048,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +7081,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +7114,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +7147,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +7180,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +7213,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +7246,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +7279,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +7312,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +7345,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +7378,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +7411,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +7444,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +7477,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +7510,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,18 +7541,15 @@
         <v>678237.9471272256</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +7574,15 @@
         <v>673950.3922272256</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +7607,15 @@
         <v>677886.3390272256</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +7642,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +7675,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,18 +7706,15 @@
         <v>637589.9549272257</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +7741,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +7774,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +7807,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +7838,15 @@
         <v>635445.0149272258</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,18 +7871,15 @@
         <v>619153.2845272258</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +7906,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +7939,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7972,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +8005,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7692,18 +8036,15 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7728,18 +8069,15 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7764,18 +8102,15 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7800,18 +8135,15 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7836,18 +8168,15 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7872,18 +8201,15 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7910,16 +8236,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7944,18 +8267,15 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7980,18 +8300,15 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8018,16 +8335,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8054,16 +8368,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8090,16 +8401,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8124,18 +8432,15 @@
         <v>-427542.0927727742</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8160,18 +8465,15 @@
         <v>-427532.0927727742</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8196,18 +8498,15 @@
         <v>-631002.7625727742</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8232,18 +8531,15 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8268,18 +8564,15 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8304,18 +8597,15 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8340,18 +8630,15 @@
         <v>-680992.7625727742</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8376,18 +8663,15 @@
         <v>-667223.1713727742</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8412,18 +8696,15 @@
         <v>-667123.1713727742</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8448,18 +8729,15 @@
         <v>-667113.1713727742</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +8764,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +8797,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +8830,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +8863,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +8896,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8929,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8700,18 +8960,15 @@
         <v>-885698.3571727743</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8995,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +9028,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +9061,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +9094,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +9127,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +9160,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +9193,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +9226,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +9259,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9062,16 +9292,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +9325,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +9358,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +9391,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +9424,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +9457,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9278,16 +9490,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +9523,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9350,16 +9556,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9386,16 +9589,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9422,16 +9622,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9458,16 +9655,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9494,16 +9688,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +9721,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +9754,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +9787,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +9820,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +9853,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +9886,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +9919,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9782,16 +9952,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9985,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +10018,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +10051,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +10084,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +10117,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9998,16 +10150,13 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10034,16 +10183,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10070,16 +10216,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +10249,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10140,24 +10280,21 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="n">
         <v>5.94</v>
       </c>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10182,22 +10319,21 @@
         <v>-1340894.744772774</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>5.94</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10224,20 +10360,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10264,20 +10397,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10304,20 +10434,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10344,20 +10471,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10384,20 +10508,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10424,20 +10545,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10464,20 +10582,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10504,22 +10619,19 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,19 +715,11 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -804,19 +748,11 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -845,19 +781,11 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,19 +814,11 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -927,19 +847,11 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -968,19 +880,11 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1009,19 +913,11 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1050,19 +946,11 @@
         <v>737864.7589036481</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J17" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1091,19 +979,11 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1132,19 +1012,11 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1173,19 +1045,11 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1214,19 +1078,11 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1111,11 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1296,19 +1144,11 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1379,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1418,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1457,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1496,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1532,19 +1342,11 @@
         <v>853160.4074036481</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1573,19 +1375,11 @@
         <v>853180.4074036481</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1614,19 +1408,11 @@
         <v>844622.7807036481</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1655,19 +1441,11 @@
         <v>844632.7807036481</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J32" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1699,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1777,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1816,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1855,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1894,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1933,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1972,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2011,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2050,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2089,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2128,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2167,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2206,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2245,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2284,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2362,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2401,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2440,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2479,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2518,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2557,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2596,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2635,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2674,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2713,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2752,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2788,19 +2398,11 @@
         <v>791954.2329036482</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2829,19 +2431,11 @@
         <v>792475.9649036481</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2870,19 +2464,11 @@
         <v>792475.9649036481</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2911,19 +2497,11 @@
         <v>800299.7557036481</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2955,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2991,19 +2563,11 @@
         <v>735813.7557036481</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3032,19 +2596,11 @@
         <v>740902.469203648</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3073,19 +2629,11 @@
         <v>750809.6353036481</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="J68" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3114,19 +2662,11 @@
         <v>750809.6353036481</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J69" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3155,19 +2695,11 @@
         <v>749809.6353036481</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3196,19 +2728,11 @@
         <v>749819.8053036481</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3237,19 +2761,11 @@
         <v>754149.4815036481</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3281,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3317,19 +2827,11 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J74" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3358,19 +2860,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3399,19 +2893,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3440,19 +2926,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J77" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3481,19 +2959,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3522,19 +2992,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3563,19 +3025,11 @@
         <v>790259.1577036481</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J80" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3604,19 +3058,11 @@
         <v>790248.742503648</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3648,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3684,19 +3124,11 @@
         <v>790248.742503648</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3725,19 +3157,11 @@
         <v>789254.888903648</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3766,19 +3190,11 @@
         <v>764390.302503648</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3807,19 +3223,11 @@
         <v>764400.302503648</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3848,19 +3256,11 @@
         <v>764400.302503648</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3889,19 +3289,11 @@
         <v>764400.302503648</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3930,19 +3322,11 @@
         <v>764400.302503648</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3971,19 +3355,11 @@
         <v>765820.302503648</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4015,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4051,19 +3421,11 @@
         <v>737191.644203648</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4092,19 +3454,11 @@
         <v>737191.644203648</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4133,19 +3487,11 @@
         <v>737191.644203648</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4174,19 +3520,11 @@
         <v>719706.2503036479</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4215,19 +3553,11 @@
         <v>719716.2503036479</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4256,19 +3586,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4297,19 +3619,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4338,19 +3652,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4379,19 +3685,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4423,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4462,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4501,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4540,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4576,19 +3850,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4656,19 +3916,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4697,19 +3949,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4738,19 +3982,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4782,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4818,19 +4048,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4859,19 +4081,11 @@
         <v>804503.5285272251</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J112" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4900,19 +4114,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4941,19 +4147,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4982,19 +4180,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5023,19 +4213,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J116" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5064,19 +4246,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J117" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5105,19 +4279,11 @@
         <v>805930.4981272251</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5146,19 +4312,11 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J119" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5187,19 +4345,11 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J120" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5228,19 +4378,11 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J121" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5272,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5308,19 +4444,11 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="J123" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5349,19 +4477,11 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="J124" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5819,19 +4873,13 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>1.016138211382114</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5858,7 +4906,7 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5891,7 +4939,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5924,7 +4972,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5957,7 +5005,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5990,7 +5038,7 @@
         <v>1207697.483627225</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -6023,7 +5071,7 @@
         <v>1180932.263027225</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6056,7 +5104,7 @@
         <v>1176423.286127225</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6089,7 +5137,7 @@
         <v>1176558.011827225</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -6122,7 +5170,7 @@
         <v>1171949.034927225</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -6155,7 +5203,7 @@
         <v>1171959.034927225</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -6188,7 +5236,7 @@
         <v>1155182.536727225</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6221,7 +5269,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6254,7 +5302,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6287,7 +5335,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6320,7 +5368,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6353,7 +5401,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6386,7 +5434,7 @@
         <v>1156413.945127225</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6419,7 +5467,7 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6452,7 +5500,7 @@
         <v>1189650.806227226</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6485,7 +5533,7 @@
         <v>1186440.806227226</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6518,7 +5566,7 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6551,7 +5599,7 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6584,7 +5632,7 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6617,7 +5665,7 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6650,7 +5698,7 @@
         <v>1210991.222827225</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6683,7 +5731,7 @@
         <v>1110846.613627225</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6716,7 +5764,7 @@
         <v>1110860.658927226</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6980,7 +6028,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7541,7 +6589,7 @@
         <v>678237.9471272256</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7574,7 +6622,7 @@
         <v>673950.3922272256</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7607,7 +6655,7 @@
         <v>677886.3390272256</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7706,7 +6754,7 @@
         <v>637589.9549272257</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7739,7 +6787,7 @@
         <v>637145.9549272257</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7838,7 +6886,7 @@
         <v>635445.0149272258</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7871,7 +6919,7 @@
         <v>619153.2845272258</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7904,7 +6952,7 @@
         <v>619153.2845272258</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7937,7 +6985,7 @@
         <v>584988.2842272258</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7970,7 +7018,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8003,7 +7051,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8036,7 +7084,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8069,7 +7117,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8102,7 +7150,7 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8135,7 +7183,7 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8168,7 +7216,7 @@
         <v>570600.9151272258</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8201,7 +7249,7 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8267,7 +7315,7 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8300,7 +7348,7 @@
         <v>-429285.7779727742</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8432,7 +7480,7 @@
         <v>-427542.0927727742</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8465,7 +7513,7 @@
         <v>-427532.0927727742</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8498,7 +7546,7 @@
         <v>-631002.7625727742</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8531,7 +7579,7 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8564,7 +7612,7 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8597,7 +7645,7 @@
         <v>-630992.7625727742</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8630,7 +7678,7 @@
         <v>-680992.7625727742</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8663,7 +7711,7 @@
         <v>-667223.1713727742</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8696,7 +7744,7 @@
         <v>-667123.1713727742</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8729,7 +7777,7 @@
         <v>-667113.1713727742</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8960,7 +8008,7 @@
         <v>-885698.3571727743</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -10247,10 +9295,14 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="J270" t="n">
+        <v>5.93</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
@@ -10280,15 +9332,17 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>5.94</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>5.93</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -10319,15 +9373,17 @@
         <v>-1340894.744772774</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>5.94</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>5.93</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -10362,11 +9418,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10399,11 +9451,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10436,11 +9484,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10473,11 +9517,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10510,11 +9550,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10547,11 +9583,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +9616,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10621,17 +9649,13 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>820829.1495036482</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>793561.2329036482</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1078620.598627225</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1156413.945127225</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1189650.806227226</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1186440.806227226</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1210991.222827225</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1110846.613627225</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1110860.658927226</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>637589.9549272257</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>637145.9549272257</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>619153.2845272258</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>619153.2845272258</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>584988.2842272258</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>574986.2842272258</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1337938.914772774</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1348883.914772774</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9262,10 +9262,14 @@
         <v>-1345240.744772774</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>6</v>
+      </c>
+      <c r="J269" t="n">
+        <v>6</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9295,15 +9299,17 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9338,11 +9344,11 @@
         <v>5.94</v>
       </c>
       <c r="J271" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9379,11 +9385,11 @@
         <v>5.94</v>
       </c>
       <c r="J272" t="n">
-        <v>5.93</v>
+        <v>6</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9417,8 +9423,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>6</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9450,8 +9462,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9483,8 +9501,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9516,8 +9540,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9549,8 +9579,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9582,8 +9618,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9615,8 +9657,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9648,14 +9696,20 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
       <c r="M280" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>905353.1032036484</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>905363.1032036484</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>905290.2531036483</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>723663.9865036483</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>724321.0247036483</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>727831.0247036483</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>656020.8342036483</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>757693.1544036482</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>733409.3483036482</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>728728.8410036481</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>738074.7589036481</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>736877.7589036481</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>736887.7589036481</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>820829.1495036482</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>793561.2329036482</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>754059.1577036481</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>865930.4981272251</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>873356.2816272251</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1012451.580127225</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>1013593.547927225</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>1078620.598627225</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1078486.670127225</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1129329.692327225</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>1129383.993827225</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>1207697.483627225</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>1180932.263027225</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1176423.286127225</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1176558.011827225</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1171959.034927225</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>1155182.536727225</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1155192.536727225</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1155212.536727225</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1156413.945127225</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1155017.120827226</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1186440.806227226</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1186450.806227226</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1179450.806227226</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>1210993.896827226</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1210972.521827226</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>1210991.222827225</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>1110846.613627225</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1110860.658927226</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>1100802.435827225</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>1100823.406027226</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>1061038.406027226</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1061210.197727225</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>958259.2806272255</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>958359.2806272255</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>890591.9729272255</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>890601.9729272255</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>876135.9729272255</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>876145.9729272255</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>870976.3243272256</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>871076.3243272256</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>834802.9729272255</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>738028.4454272256</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>694994.4454272256</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-1337938.914772774</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-1337928.914772774</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-1348883.914772774</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9262,14 +9262,10 @@
         <v>-1345240.744772774</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>6</v>
-      </c>
-      <c r="J269" t="n">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
@@ -9299,17 +9295,15 @@
         <v>-1340904.744772774</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>5.93</v>
+      </c>
       <c r="J270" t="n">
-        <v>6</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>5.93</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9344,11 +9338,11 @@
         <v>5.94</v>
       </c>
       <c r="J271" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L271" t="n">
@@ -9385,11 +9379,11 @@
         <v>5.94</v>
       </c>
       <c r="J272" t="n">
-        <v>6</v>
+        <v>5.93</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9423,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>6</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9462,14 +9450,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9501,14 +9483,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9540,14 +9516,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9579,14 +9549,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9618,14 +9582,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9657,14 +9615,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9696,14 +9648,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest FAB.xlsx
+++ b/BackTest/2019-10-26 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M280"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>905353.1032036484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>905353.1032036484</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>905363.1032036484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10010</v>
       </c>
       <c r="G5" t="n">
-        <v>905363.1032036484</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>905363.1032036484</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>72.8501</v>
       </c>
       <c r="G7" t="n">
-        <v>905290.2531036483</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,21 @@
         <v>181626.2666</v>
       </c>
       <c r="G8" t="n">
-        <v>723663.9865036483</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +659,21 @@
         <v>657.0382</v>
       </c>
       <c r="G9" t="n">
-        <v>724321.0247036483</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +695,21 @@
         <v>24040.1222</v>
       </c>
       <c r="G10" t="n">
-        <v>724321.0247036483</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +731,21 @@
         <v>3510</v>
       </c>
       <c r="G11" t="n">
-        <v>727831.0247036483</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +767,21 @@
         <v>71810.1905</v>
       </c>
       <c r="G12" t="n">
-        <v>656020.8342036483</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +803,21 @@
         <v>72923.0022</v>
       </c>
       <c r="G13" t="n">
-        <v>656020.8342036483</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +839,21 @@
         <v>101672.3202</v>
       </c>
       <c r="G14" t="n">
-        <v>757693.1544036482</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +875,21 @@
         <v>24283.8061</v>
       </c>
       <c r="G15" t="n">
-        <v>733409.3483036482</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6.16</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +911,21 @@
         <v>4680.5073</v>
       </c>
       <c r="G16" t="n">
-        <v>728728.8410036481</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +947,21 @@
         <v>9135.9179</v>
       </c>
       <c r="G17" t="n">
-        <v>737864.7589036481</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.06</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +983,21 @@
         <v>210</v>
       </c>
       <c r="G18" t="n">
-        <v>738074.7589036481</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1019,21 @@
         <v>1000</v>
       </c>
       <c r="G19" t="n">
-        <v>738074.7589036481</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1055,19 @@
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>738074.7589036481</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1089,19 @@
         <v>1197</v>
       </c>
       <c r="G21" t="n">
-        <v>736877.7589036481</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1123,19 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1157,19 @@
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1191,19 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1225,19 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1259,19 @@
         <v>100</v>
       </c>
       <c r="G26" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1293,19 @@
         <v>100</v>
       </c>
       <c r="G27" t="n">
-        <v>736887.7589036481</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1327,19 @@
         <v>19158.507</v>
       </c>
       <c r="G28" t="n">
-        <v>756046.2659036481</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1361,19 @@
         <v>97114.1415</v>
       </c>
       <c r="G29" t="n">
-        <v>853160.4074036481</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1395,19 @@
         <v>20</v>
       </c>
       <c r="G30" t="n">
-        <v>853180.4074036481</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1429,19 @@
         <v>8557.626700000001</v>
       </c>
       <c r="G31" t="n">
-        <v>844622.7807036481</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1463,19 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>844632.7807036481</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1497,19 @@
         <v>23813.6312</v>
       </c>
       <c r="G33" t="n">
-        <v>820819.1495036482</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1531,19 @@
         <v>6950.2579</v>
       </c>
       <c r="G34" t="n">
-        <v>820819.1495036482</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1565,19 @@
         <v>144141.4215</v>
       </c>
       <c r="G35" t="n">
-        <v>820819.1495036482</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1599,19 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1633,19 @@
         <v>4906.1784</v>
       </c>
       <c r="G37" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1667,19 @@
         <v>1044.4444</v>
       </c>
       <c r="G38" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1701,19 @@
         <v>8455.355600000001</v>
       </c>
       <c r="G39" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1735,19 @@
         <v>70</v>
       </c>
       <c r="G40" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1769,19 @@
         <v>930.2</v>
       </c>
       <c r="G41" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1803,19 @@
         <v>50</v>
       </c>
       <c r="G42" t="n">
-        <v>820829.1495036482</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1837,19 @@
         <v>26415</v>
       </c>
       <c r="G43" t="n">
-        <v>794414.1495036482</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1871,19 @@
         <v>27011</v>
       </c>
       <c r="G44" t="n">
-        <v>794414.1495036482</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1905,19 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1939,19 @@
         <v>8940.669900000001</v>
       </c>
       <c r="G46" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1973,19 @@
         <v>4305.8384</v>
       </c>
       <c r="G47" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2007,19 @@
         <v>48053.252</v>
       </c>
       <c r="G48" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2041,19 @@
         <v>8055.569</v>
       </c>
       <c r="G49" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2075,19 @@
         <v>2604.065</v>
       </c>
       <c r="G50" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2109,19 @@
         <v>3500</v>
       </c>
       <c r="G51" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2143,19 @@
         <v>1000</v>
       </c>
       <c r="G52" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2177,19 @@
         <v>16032.5569</v>
       </c>
       <c r="G53" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2211,19 @@
         <v>64643.4435</v>
       </c>
       <c r="G54" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2245,19 @@
         <v>1804.6053</v>
       </c>
       <c r="G55" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2279,19 @@
         <v>80</v>
       </c>
       <c r="G56" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2313,19 @@
         <v>100</v>
       </c>
       <c r="G57" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2347,19 @@
         <v>100</v>
       </c>
       <c r="G58" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2381,19 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>794424.1495036482</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2415,19 @@
         <v>862.9166</v>
       </c>
       <c r="G60" t="n">
-        <v>793561.2329036482</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2449,19 @@
         <v>1607</v>
       </c>
       <c r="G61" t="n">
-        <v>791954.2329036482</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2483,19 @@
         <v>521.732</v>
       </c>
       <c r="G62" t="n">
-        <v>792475.9649036481</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2517,19 @@
         <v>7836</v>
       </c>
       <c r="G63" t="n">
-        <v>792475.9649036481</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2551,19 @@
         <v>7823.7908</v>
       </c>
       <c r="G64" t="n">
-        <v>800299.7557036481</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2585,19 @@
         <v>1010</v>
       </c>
       <c r="G65" t="n">
-        <v>800299.7557036481</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2619,19 @@
         <v>64486</v>
       </c>
       <c r="G66" t="n">
-        <v>735813.7557036481</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2653,19 @@
         <v>5088.7135</v>
       </c>
       <c r="G67" t="n">
-        <v>740902.469203648</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2687,19 @@
         <v>9907.1661</v>
       </c>
       <c r="G68" t="n">
-        <v>750809.6353036481</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2721,19 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>750809.6353036481</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2755,19 @@
         <v>1000</v>
       </c>
       <c r="G70" t="n">
-        <v>749809.6353036481</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2789,19 @@
         <v>10.17</v>
       </c>
       <c r="G71" t="n">
-        <v>749819.8053036481</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2823,19 @@
         <v>4329.6762</v>
       </c>
       <c r="G72" t="n">
-        <v>754149.4815036481</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2857,19 @@
         <v>90.32380000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>754059.1577036481</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2891,21 @@
         <v>2438.7249</v>
       </c>
       <c r="G74" t="n">
-        <v>754059.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2927,21 @@
         <v>36200</v>
       </c>
       <c r="G75" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2963,21 @@
         <v>5300</v>
       </c>
       <c r="G76" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2999,21 @@
         <v>10590</v>
       </c>
       <c r="G77" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3035,21 @@
         <v>128</v>
       </c>
       <c r="G78" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3071,21 @@
         <v>800</v>
       </c>
       <c r="G79" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3107,21 @@
         <v>890</v>
       </c>
       <c r="G80" t="n">
-        <v>790259.1577036481</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3143,21 @@
         <v>10.4152</v>
       </c>
       <c r="G81" t="n">
-        <v>790248.742503648</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3179,21 @@
         <v>1045.4975</v>
       </c>
       <c r="G82" t="n">
-        <v>790248.742503648</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3215,21 @@
         <v>25589.4136</v>
       </c>
       <c r="G83" t="n">
-        <v>790248.742503648</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3251,21 @@
         <v>993.8536</v>
       </c>
       <c r="G84" t="n">
-        <v>789254.888903648</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3287,21 @@
         <v>24864.5864</v>
       </c>
       <c r="G85" t="n">
-        <v>764390.302503648</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3323,21 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>764400.302503648</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3359,21 @@
         <v>1741.2706</v>
       </c>
       <c r="G87" t="n">
-        <v>764400.302503648</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3395,21 @@
         <v>6480</v>
       </c>
       <c r="G88" t="n">
-        <v>764400.302503648</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3431,21 @@
         <v>8910</v>
       </c>
       <c r="G89" t="n">
-        <v>764400.302503648</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3467,21 @@
         <v>1420</v>
       </c>
       <c r="G90" t="n">
-        <v>765820.302503648</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3503,21 @@
         <v>28639.9183</v>
       </c>
       <c r="G91" t="n">
-        <v>737180.384203648</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3539,21 @@
         <v>11.26</v>
       </c>
       <c r="G92" t="n">
-        <v>737191.644203648</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3575,21 @@
         <v>29816.5763</v>
       </c>
       <c r="G93" t="n">
-        <v>737191.644203648</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3611,21 @@
         <v>519.2542999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>737191.644203648</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3647,21 @@
         <v>17485.3939</v>
       </c>
       <c r="G95" t="n">
-        <v>719706.2503036479</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>6.14</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3683,21 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>719716.2503036479</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3719,21 @@
         <v>84787.27822357723</v>
       </c>
       <c r="G97" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3755,21 @@
         <v>70</v>
       </c>
       <c r="G98" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3791,21 @@
         <v>61179.1869</v>
       </c>
       <c r="G99" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3827,21 @@
         <v>162601.626</v>
       </c>
       <c r="G100" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3863,21 @@
         <v>215.0076</v>
       </c>
       <c r="G101" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3899,21 @@
         <v>61996.6601</v>
       </c>
       <c r="G102" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3935,21 @@
         <v>20891.426</v>
       </c>
       <c r="G103" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3971,21 @@
         <v>3111.9139</v>
       </c>
       <c r="G104" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +4007,21 @@
         <v>61062.6634</v>
       </c>
       <c r="G105" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4043,21 @@
         <v>8397.336600000001</v>
       </c>
       <c r="G106" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4079,21 @@
         <v>540</v>
       </c>
       <c r="G107" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4115,21 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4151,21 @@
         <v>100</v>
       </c>
       <c r="G109" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4187,21 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4223,21 @@
         <v>13489.2592</v>
       </c>
       <c r="G111" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4259,21 @@
         <v>25310.7408</v>
       </c>
       <c r="G112" t="n">
-        <v>804503.5285272251</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4295,21 @@
         <v>1426.9696</v>
       </c>
       <c r="G113" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4331,21 @@
         <v>9010</v>
       </c>
       <c r="G114" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4367,21 @@
         <v>10000</v>
       </c>
       <c r="G115" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4403,21 @@
         <v>88.8888</v>
       </c>
       <c r="G116" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4439,21 @@
         <v>8921.111199999999</v>
       </c>
       <c r="G117" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4475,21 @@
         <v>10000</v>
       </c>
       <c r="G118" t="n">
-        <v>805930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4511,21 @@
         <v>60000</v>
       </c>
       <c r="G119" t="n">
-        <v>865930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>6.17</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4547,21 @@
         <v>57.6213</v>
       </c>
       <c r="G120" t="n">
-        <v>865930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4583,21 @@
         <v>4106.2483</v>
       </c>
       <c r="G121" t="n">
-        <v>865930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4619,21 @@
         <v>100</v>
       </c>
       <c r="G122" t="n">
-        <v>865930.4981272251</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4655,21 @@
         <v>7425.7835</v>
       </c>
       <c r="G123" t="n">
-        <v>873356.2816272251</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4691,21 @@
         <v>112.3695</v>
       </c>
       <c r="G124" t="n">
-        <v>873356.2816272251</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4727,21 @@
         <v>300</v>
       </c>
       <c r="G125" t="n">
-        <v>873356.2816272251</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4763,21 @@
         <v>120020</v>
       </c>
       <c r="G126" t="n">
-        <v>873356.2816272251</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4799,21 @@
         <v>139095.2985</v>
       </c>
       <c r="G127" t="n">
-        <v>1012451.580127225</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4835,21 @@
         <v>97486.5241</v>
       </c>
       <c r="G128" t="n">
-        <v>1012451.580127225</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4871,21 @@
         <v>128875.2041</v>
       </c>
       <c r="G129" t="n">
-        <v>1012451.580127225</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4907,21 @@
         <v>1141.9678</v>
       </c>
       <c r="G130" t="n">
-        <v>1013593.547927225</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4943,21 @@
         <v>30</v>
       </c>
       <c r="G131" t="n">
-        <v>1013593.547927225</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4979,19 @@
         <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>1013593.547927225</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +5013,19 @@
         <v>100</v>
       </c>
       <c r="G133" t="n">
-        <v>1013593.547927225</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +5047,19 @@
         <v>6542.7128</v>
       </c>
       <c r="G134" t="n">
-        <v>1013593.547927225</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +5081,19 @@
         <v>65027.0507</v>
       </c>
       <c r="G135" t="n">
-        <v>1078620.598627225</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +5115,19 @@
         <v>133.9285</v>
       </c>
       <c r="G136" t="n">
-        <v>1078486.670127225</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +5149,19 @@
         <v>50843.0222</v>
       </c>
       <c r="G137" t="n">
-        <v>1129329.692327225</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5183,19 @@
         <v>54.3015</v>
       </c>
       <c r="G138" t="n">
-        <v>1129383.993827225</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5217,19 @@
         <v>222</v>
       </c>
       <c r="G139" t="n">
-        <v>1129383.993827225</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5251,19 @@
         <v>12611.0298</v>
       </c>
       <c r="G140" t="n">
-        <v>1129383.993827225</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5285,19 @@
         <v>78313.4898</v>
       </c>
       <c r="G141" t="n">
-        <v>1207697.483627225</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5319,19 @@
         <v>26765.2206</v>
       </c>
       <c r="G142" t="n">
-        <v>1180932.263027225</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5353,19 @@
         <v>4508.9769</v>
       </c>
       <c r="G143" t="n">
-        <v>1176423.286127225</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5387,19 @@
         <v>134.7257</v>
       </c>
       <c r="G144" t="n">
-        <v>1176558.011827225</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5421,19 @@
         <v>4608.9769</v>
       </c>
       <c r="G145" t="n">
-        <v>1171949.034927225</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +5455,19 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>1171959.034927225</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +5489,19 @@
         <v>16776.4982</v>
       </c>
       <c r="G147" t="n">
-        <v>1155182.536727225</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +5523,19 @@
         <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>1155192.536727225</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +5557,19 @@
         <v>30194.631</v>
       </c>
       <c r="G149" t="n">
-        <v>1155192.536727225</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5591,19 @@
         <v>62794.3485</v>
       </c>
       <c r="G150" t="n">
-        <v>1155192.536727225</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5625,19 @@
         <v>20</v>
       </c>
       <c r="G151" t="n">
-        <v>1155212.536727225</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5659,19 @@
         <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>1155212.536727225</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5693,17 @@
         <v>1201.4084</v>
       </c>
       <c r="G153" t="n">
-        <v>1156413.945127225</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5725,15 @@
         <v>1396.8243</v>
       </c>
       <c r="G154" t="n">
-        <v>1155017.120827226</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5755,15 @@
         <v>34633.6854</v>
       </c>
       <c r="G155" t="n">
-        <v>1189650.806227226</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5785,15 @@
         <v>3210</v>
       </c>
       <c r="G156" t="n">
-        <v>1186440.806227226</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5815,15 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>1186450.806227226</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5845,15 @@
         <v>7000</v>
       </c>
       <c r="G158" t="n">
-        <v>1179450.806227226</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5875,15 @@
         <v>31543.0906</v>
       </c>
       <c r="G159" t="n">
-        <v>1210993.896827226</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5905,15 @@
         <v>21.375</v>
       </c>
       <c r="G160" t="n">
-        <v>1210972.521827226</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5935,15 @@
         <v>18.701</v>
       </c>
       <c r="G161" t="n">
-        <v>1210991.222827225</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5965,15 @@
         <v>100144.6092</v>
       </c>
       <c r="G162" t="n">
-        <v>1110846.613627225</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5995,15 @@
         <v>14.0453</v>
       </c>
       <c r="G163" t="n">
-        <v>1110860.658927226</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +6025,15 @@
         <v>10058.2231</v>
       </c>
       <c r="G164" t="n">
-        <v>1100802.435827225</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +6055,15 @@
         <v>20.9702</v>
       </c>
       <c r="G165" t="n">
-        <v>1100823.406027226</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +6085,15 @@
         <v>39785</v>
       </c>
       <c r="G166" t="n">
-        <v>1061038.406027226</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +6115,15 @@
         <v>37910</v>
       </c>
       <c r="G167" t="n">
-        <v>1061038.406027226</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +6145,15 @@
         <v>53901</v>
       </c>
       <c r="G168" t="n">
-        <v>1061038.406027226</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +6175,15 @@
         <v>26601</v>
       </c>
       <c r="G169" t="n">
-        <v>1061038.406027226</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +6205,15 @@
         <v>11625.3142</v>
       </c>
       <c r="G170" t="n">
-        <v>1061038.406027226</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +6235,15 @@
         <v>171.7917</v>
       </c>
       <c r="G171" t="n">
-        <v>1061210.197727225</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +6265,15 @@
         <v>100</v>
       </c>
       <c r="G172" t="n">
-        <v>1061210.197727225</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +6295,15 @@
         <v>102950.9171</v>
       </c>
       <c r="G173" t="n">
-        <v>958259.2806272255</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +6325,15 @@
         <v>100</v>
       </c>
       <c r="G174" t="n">
-        <v>958359.2806272255</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +6355,15 @@
         <v>67767.3077</v>
       </c>
       <c r="G175" t="n">
-        <v>890591.9729272255</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +6385,15 @@
         <v>10</v>
       </c>
       <c r="G176" t="n">
-        <v>890601.9729272255</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +6415,15 @@
         <v>14466</v>
       </c>
       <c r="G177" t="n">
-        <v>876135.9729272255</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +6445,15 @@
         <v>10</v>
       </c>
       <c r="G178" t="n">
-        <v>876145.9729272255</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +6475,15 @@
         <v>280079.467</v>
       </c>
       <c r="G179" t="n">
-        <v>876145.9729272255</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +6505,15 @@
         <v>5169.6486</v>
       </c>
       <c r="G180" t="n">
-        <v>870976.3243272256</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +6535,15 @@
         <v>100</v>
       </c>
       <c r="G181" t="n">
-        <v>871076.3243272256</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +6565,15 @@
         <v>36273.3514</v>
       </c>
       <c r="G182" t="n">
-        <v>834802.9729272255</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +6595,15 @@
         <v>96774.5275</v>
       </c>
       <c r="G183" t="n">
-        <v>738028.4454272256</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +6625,15 @@
         <v>43034</v>
       </c>
       <c r="G184" t="n">
-        <v>694994.4454272256</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +6655,15 @@
         <v>88.8888</v>
       </c>
       <c r="G185" t="n">
-        <v>694994.4454272256</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6685,15 @@
         <v>4897.51</v>
       </c>
       <c r="G186" t="n">
-        <v>694994.4454272256</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6715,15 @@
         <v>16776.4983</v>
       </c>
       <c r="G187" t="n">
-        <v>678217.9471272256</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6745,15 @@
         <v>20</v>
       </c>
       <c r="G188" t="n">
-        <v>678237.9471272256</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6775,15 @@
         <v>4287.5549</v>
       </c>
       <c r="G189" t="n">
-        <v>673950.3922272256</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6805,15 @@
         <v>3935.9468</v>
       </c>
       <c r="G190" t="n">
-        <v>677886.3390272256</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6835,15 @@
         <v>41026.4648</v>
       </c>
       <c r="G191" t="n">
-        <v>636859.8742272257</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6865,15 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>636869.8742272257</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6895,15 @@
         <v>720.0807</v>
       </c>
       <c r="G193" t="n">
-        <v>637589.9549272257</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6925,15 @@
         <v>444</v>
       </c>
       <c r="G194" t="n">
-        <v>637145.9549272257</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6955,15 @@
         <v>10</v>
       </c>
       <c r="G195" t="n">
-        <v>637155.9549272257</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6985,15 @@
         <v>1821.4238</v>
       </c>
       <c r="G196" t="n">
-        <v>635334.5311272257</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +7015,15 @@
         <v>110.4838</v>
       </c>
       <c r="G197" t="n">
-        <v>635445.0149272258</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +7045,15 @@
         <v>16291.7304</v>
       </c>
       <c r="G198" t="n">
-        <v>619153.2845272258</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +7075,15 @@
         <v>1209.3482</v>
       </c>
       <c r="G199" t="n">
-        <v>619153.2845272258</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +7105,15 @@
         <v>34165.0003</v>
       </c>
       <c r="G200" t="n">
-        <v>584988.2842272258</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +7135,15 @@
         <v>10002</v>
       </c>
       <c r="G201" t="n">
-        <v>574986.2842272258</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +7165,15 @@
         <v>938.543</v>
       </c>
       <c r="G202" t="n">
-        <v>574986.2842272258</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +7195,15 @@
         <v>350555.7038</v>
       </c>
       <c r="G203" t="n">
-        <v>574986.2842272258</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +7225,15 @@
         <v>3333</v>
       </c>
       <c r="G204" t="n">
-        <v>574986.2842272258</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +7255,15 @@
         <v>4385.3691</v>
       </c>
       <c r="G205" t="n">
-        <v>570600.9151272258</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +7285,15 @@
         <v>3175.0357</v>
       </c>
       <c r="G206" t="n">
-        <v>570600.9151272258</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +7315,15 @@
         <v>51754.0178</v>
       </c>
       <c r="G207" t="n">
-        <v>570600.9151272258</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +7345,15 @@
         <v>999886.6931</v>
       </c>
       <c r="G208" t="n">
-        <v>-429285.7779727742</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +7375,15 @@
         <v>164708.7042</v>
       </c>
       <c r="G209" t="n">
-        <v>-429285.7779727742</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +7405,15 @@
         <v>195335.57</v>
       </c>
       <c r="G210" t="n">
-        <v>-429285.7779727742</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +7435,15 @@
         <v>3333</v>
       </c>
       <c r="G211" t="n">
-        <v>-429285.7779727742</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +7465,15 @@
         <v>9890.732400000001</v>
       </c>
       <c r="G212" t="n">
-        <v>-429285.7779727742</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +7495,15 @@
         <v>1480</v>
       </c>
       <c r="G213" t="n">
-        <v>-427805.7779727742</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +7525,15 @@
         <v>39008.9122</v>
       </c>
       <c r="G214" t="n">
-        <v>-427805.7779727742</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +7555,15 @@
         <v>263.6852</v>
       </c>
       <c r="G215" t="n">
-        <v>-427542.0927727742</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +7585,15 @@
         <v>10</v>
       </c>
       <c r="G216" t="n">
-        <v>-427532.0927727742</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +7615,15 @@
         <v>203470.6698</v>
       </c>
       <c r="G217" t="n">
-        <v>-631002.7625727742</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +7645,15 @@
         <v>10</v>
       </c>
       <c r="G218" t="n">
-        <v>-630992.7625727742</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7675,15 @@
         <v>27801.0015</v>
       </c>
       <c r="G219" t="n">
-        <v>-630992.7625727742</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7705,15 @@
         <v>9364.7392</v>
       </c>
       <c r="G220" t="n">
-        <v>-630992.7625727742</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7735,15 @@
         <v>50000</v>
       </c>
       <c r="G221" t="n">
-        <v>-680992.7625727742</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7765,15 @@
         <v>13769.5912</v>
       </c>
       <c r="G222" t="n">
-        <v>-667223.1713727742</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7795,15 @@
         <v>100</v>
       </c>
       <c r="G223" t="n">
-        <v>-667123.1713727742</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7825,15 @@
         <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>-667113.1713727742</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7855,15 @@
         <v>49.925</v>
       </c>
       <c r="G225" t="n">
-        <v>-667163.0963727742</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7885,15 @@
         <v>14000</v>
       </c>
       <c r="G226" t="n">
-        <v>-667163.0963727742</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7915,15 @@
         <v>489.8176</v>
       </c>
       <c r="G227" t="n">
-        <v>-667163.0963727742</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7945,15 @@
         <v>78000</v>
       </c>
       <c r="G228" t="n">
-        <v>-745163.0963727742</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7975,15 @@
         <v>40535.2608</v>
       </c>
       <c r="G229" t="n">
-        <v>-785698.3571727743</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +8005,15 @@
         <v>263021.2197</v>
       </c>
       <c r="G230" t="n">
-        <v>-785698.3571727743</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +8035,15 @@
         <v>100000</v>
       </c>
       <c r="G231" t="n">
-        <v>-885698.3571727743</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +8065,15 @@
         <v>50000</v>
       </c>
       <c r="G232" t="n">
-        <v>-885698.3571727743</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +8095,15 @@
         <v>10601.4204</v>
       </c>
       <c r="G233" t="n">
-        <v>-885698.3571727743</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +8125,15 @@
         <v>2000</v>
       </c>
       <c r="G234" t="n">
-        <v>-883698.3571727743</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +8155,15 @@
         <v>36849.8199</v>
       </c>
       <c r="G235" t="n">
-        <v>-920548.1770727743</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +8185,15 @@
         <v>12283.2733</v>
       </c>
       <c r="G236" t="n">
-        <v>-920548.1770727743</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +8215,15 @@
         <v>65548.9347</v>
       </c>
       <c r="G237" t="n">
-        <v>-920548.1770727743</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +8245,15 @@
         <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>-920538.1770727743</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +8275,15 @@
         <v>417304.6185</v>
       </c>
       <c r="G239" t="n">
-        <v>-1337842.795572774</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +8305,15 @@
         <v>1839.6449</v>
       </c>
       <c r="G240" t="n">
-        <v>-1339682.440472774</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +8335,15 @@
         <v>76.95820000000001</v>
       </c>
       <c r="G241" t="n">
-        <v>-1339682.440472774</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +8365,15 @@
         <v>19990</v>
       </c>
       <c r="G242" t="n">
-        <v>-1339682.440472774</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +8395,15 @@
         <v>49.95</v>
       </c>
       <c r="G243" t="n">
-        <v>-1339682.440472774</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +8425,15 @@
         <v>10</v>
       </c>
       <c r="G244" t="n">
-        <v>-1339672.440472774</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +8455,15 @@
         <v>280.6443</v>
       </c>
       <c r="G245" t="n">
-        <v>-1339953.084772774</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +8485,15 @@
         <v>20</v>
       </c>
       <c r="G246" t="n">
-        <v>-1339953.084772774</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +8515,15 @@
         <v>19.95</v>
       </c>
       <c r="G247" t="n">
-        <v>-1339973.034772774</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +8545,15 @@
         <v>388000</v>
       </c>
       <c r="G248" t="n">
-        <v>-1339973.034772774</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +8575,15 @@
         <v>10</v>
       </c>
       <c r="G249" t="n">
-        <v>-1339963.034772774</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +8605,15 @@
         <v>12260.4668</v>
       </c>
       <c r="G250" t="n">
-        <v>-1339963.034772774</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +8635,15 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>-1339953.034772774</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +8665,15 @@
         <v>69034.9837</v>
       </c>
       <c r="G252" t="n">
-        <v>-1339953.034772774</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8695,15 @@
         <v>50</v>
       </c>
       <c r="G253" t="n">
-        <v>-1339903.034772774</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8725,15 @@
         <v>2030</v>
       </c>
       <c r="G254" t="n">
-        <v>-1337873.034772774</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8755,15 @@
         <v>20</v>
       </c>
       <c r="G255" t="n">
-        <v>-1337873.034772774</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8785,15 @@
         <v>19.95</v>
       </c>
       <c r="G256" t="n">
-        <v>-1337892.984772774</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8815,15 @@
         <v>207.2585</v>
       </c>
       <c r="G257" t="n">
-        <v>-1337892.984772774</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8845,15 @@
         <v>10</v>
       </c>
       <c r="G258" t="n">
-        <v>-1337882.984772774</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8875,15 @@
         <v>49.95</v>
       </c>
       <c r="G259" t="n">
-        <v>-1337882.984772774</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8905,15 @@
         <v>55.93</v>
       </c>
       <c r="G260" t="n">
-        <v>-1337938.914772774</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8935,15 @@
         <v>10</v>
       </c>
       <c r="G261" t="n">
-        <v>-1337928.914772774</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8965,15 @@
         <v>10077.5841</v>
       </c>
       <c r="G262" t="n">
-        <v>-1337928.914772774</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8995,15 @@
         <v>815521.1297</v>
       </c>
       <c r="G263" t="n">
-        <v>-1337928.914772774</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +9025,15 @@
         <v>10955</v>
       </c>
       <c r="G264" t="n">
-        <v>-1348883.914772774</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +9055,15 @@
         <v>9879.4447</v>
       </c>
       <c r="G265" t="n">
-        <v>-1348883.914772774</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +9085,15 @@
         <v>20907.83</v>
       </c>
       <c r="G266" t="n">
-        <v>-1369791.744772774</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +9115,15 @@
         <v>24562</v>
       </c>
       <c r="G267" t="n">
-        <v>-1345229.744772774</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +9145,15 @@
         <v>10486</v>
       </c>
       <c r="G268" t="n">
-        <v>-1345229.744772774</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +9175,15 @@
         <v>11</v>
       </c>
       <c r="G269" t="n">
-        <v>-1345240.744772774</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,22 +9205,15 @@
         <v>4336</v>
       </c>
       <c r="G270" t="n">
-        <v>-1340904.744772774</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="J270" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9329,26 +9235,15 @@
         <v>104757</v>
       </c>
       <c r="G271" t="n">
-        <v>-1340904.744772774</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="J271" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9370,26 +9265,15 @@
         <v>10</v>
       </c>
       <c r="G272" t="n">
-        <v>-1340894.744772774</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="J272" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9411,18 +9295,15 @@
         <v>10</v>
       </c>
       <c r="G273" t="n">
-        <v>-1340904.744772774</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9444,18 +9325,15 @@
         <v>54133.8553</v>
       </c>
       <c r="G274" t="n">
-        <v>-1340904.744772774</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9477,18 +9355,15 @@
         <v>29.2245</v>
       </c>
       <c r="G275" t="n">
-        <v>-1340875.520272774</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9510,18 +9385,15 @@
         <v>91140.2831</v>
       </c>
       <c r="G276" t="n">
-        <v>-1432015.803372774</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9543,18 +9415,15 @@
         <v>10</v>
       </c>
       <c r="G277" t="n">
-        <v>-1432005.803372774</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9576,18 +9445,15 @@
         <v>426</v>
       </c>
       <c r="G278" t="n">
-        <v>-1432431.803372774</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9609,18 +9475,15 @@
         <v>169700.7328</v>
       </c>
       <c r="G279" t="n">
-        <v>-1432431.803372774</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9642,18 +9505,15 @@
         <v>10</v>
       </c>
       <c r="G280" t="n">
-        <v>-1432421.803372774</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
